--- a/Results/TinyMPC CDC benchmarks/Safety Filter/Safety Filter STM32 OSQP.xlsx
+++ b/Results/TinyMPC CDC benchmarks/Safety Filter/Safety Filter STM32 OSQP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>iterations</t>
   </si>
@@ -152,6 +152,9 @@
     <t>n horizon = 4</t>
   </si>
   <si>
+    <t>n horizon = 8</t>
+  </si>
+  <si>
     <t>n horizon = 10</t>
   </si>
   <si>
@@ -164,13 +167,28 @@
     <t>n horizon = 30</t>
   </si>
   <si>
+    <t>n horizon = 32</t>
+  </si>
+  <si>
     <t>n horizon = 40</t>
   </si>
   <si>
     <t>n horizon = 50</t>
   </si>
   <si>
+    <t>n horizon = 64</t>
+  </si>
+  <si>
+    <t>n horizon = 100</t>
+  </si>
+  <si>
+    <t>n horizon = 128</t>
+  </si>
+  <si>
     <t>Sketch uses 217432 bytes (20%) of program storage space. Maximum is 1048576 bytes.</t>
+  </si>
+  <si>
+    <t>Sketch uses 225912 bytes (21%) of program storage space. Maximum is 1048576 bytes.</t>
   </si>
   <si>
     <t>Sketch uses 230152 bytes (21%) of program storage space. Maximum is 1048576 bytes.</t>
@@ -185,6 +203,9 @@
     <t>Global variables use 28116 bytes (21%) of dynamic memory, leaving 102956 bytes for local variables. Maximum is 131072 bytes.</t>
   </si>
   <si>
+    <t>Global variables use 44996 bytes (34%) of dynamic memory, leaving 86076 bytes for local variables. Maximum is 131072 bytes.</t>
+  </si>
+  <si>
     <t>Global variables use 53436 bytes (40%) of dynamic memory, leaving 77636 bytes for local variables. Maximum is 131072 bytes.</t>
   </si>
   <si>
@@ -197,10 +218,25 @@
     <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 8304 bytes</t>
   </si>
   <si>
+    <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 16744 bytes</t>
+  </si>
+  <si>
     <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 50504 bytes</t>
   </si>
   <si>
+    <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 151784 bytes</t>
+  </si>
+  <si>
+    <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 303704 bytes</t>
+  </si>
+  <si>
+    <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 421864 bytes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Size          : 212.80 KB </t>
+  </si>
+  <si>
+    <t>221.08 KB</t>
   </si>
   <si>
     <t>Size          : 225.22 KB</t>
@@ -720,7 +756,7 @@
       <c r="B4" s="5">
         <v>1441.0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="5">
@@ -10495,6 +10531,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -10532,6 +10574,31 @@
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="4"/>
+      <c r="V2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="5">
@@ -10541,43 +10608,64 @@
         <v>3108.0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5">
         <v>7.0</v>
       </c>
       <c r="E3" s="5">
-        <v>10039.0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>53</v>
+        <v>8028.0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="G3" s="5">
         <v>7.0</v>
       </c>
       <c r="H3" s="5">
+        <v>10039.0</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="K3" s="5">
         <v>16286.0</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="L3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="5">
         <v>16.0</v>
       </c>
-      <c r="K3" s="5">
+      <c r="N3" s="5">
         <v>51698.0</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="O3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="U3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -10588,43 +10676,64 @@
         <v>2279.0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5">
         <v>5.0</v>
       </c>
       <c r="E4" s="5">
-        <v>6533.0</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>57</v>
+        <v>5195.0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G4" s="5">
         <v>5.0</v>
       </c>
       <c r="H4" s="5">
+        <v>6533.0</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="K4" s="5">
         <v>11413.0</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="L4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="5">
         <v>6.0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="N4" s="5">
         <v>17831.0</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="U4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -10635,42 +10744,63 @@
         <v>2566.0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5">
         <v>5.0</v>
       </c>
       <c r="E5" s="5">
-        <v>6505.0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>63</v>
+        <v>5175.0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G5" s="5">
         <v>5.0</v>
       </c>
       <c r="H5" s="5">
+        <v>6505.0</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="K5" s="5">
         <v>11338.0</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="L5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="5">
         <v>6.0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="N5" s="5">
         <v>17763.0</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="O5" s="6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="R5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="AA5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10685,18 +10815,25 @@
         <v>5.0</v>
       </c>
       <c r="E6" s="5">
-        <v>7126.0</v>
-      </c>
+        <v>5235.0</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5">
         <v>5.0</v>
       </c>
       <c r="H6" s="5">
+        <v>7126.0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="K6" s="5">
         <v>11363.0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="M6" s="5">
         <v>15.0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="N6" s="5">
         <v>47242.0</v>
       </c>
     </row>
@@ -10711,18 +10848,25 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="5">
+        <v>5656.0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H7" s="5">
         <v>7105.0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="J7" s="5">
         <v>21.0</v>
       </c>
-      <c r="H7" s="5">
+      <c r="K7" s="5">
         <v>48873.0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="M7" s="5">
         <v>14.0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="N7" s="5">
         <v>43958.0</v>
       </c>
     </row>
@@ -10737,18 +10881,25 @@
         <v>4.0</v>
       </c>
       <c r="E8" s="5">
+        <v>4493.0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H8" s="5">
         <v>5645.0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="J8" s="5">
         <v>16.0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="K8" s="5">
         <v>37191.0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="M8" s="5">
         <v>14.0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="N8" s="5">
         <v>43952.0</v>
       </c>
     </row>
@@ -10763,18 +10914,25 @@
         <v>4.0</v>
       </c>
       <c r="E9" s="5">
+        <v>4493.0</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H9" s="5">
         <v>5600.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="J9" s="5">
         <v>6.0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="K9" s="5">
         <v>12913.0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="M9" s="5">
         <v>12.0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="N9" s="5">
         <v>37378.0</v>
       </c>
     </row>
@@ -10789,18 +10947,25 @@
         <v>4.0</v>
       </c>
       <c r="E10" s="5">
+        <v>4493.0</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H10" s="5">
         <v>5596.0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="J10" s="5">
         <v>6.0</v>
       </c>
-      <c r="H10" s="5">
+      <c r="K10" s="5">
         <v>12926.0</v>
       </c>
-      <c r="J10" s="5">
+      <c r="M10" s="5">
         <v>16.0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="N10" s="5">
         <v>51479.0</v>
       </c>
     </row>
@@ -10812,21 +10977,28 @@
         <v>2190.0</v>
       </c>
       <c r="D11" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="5">
-        <v>6536.0</v>
-      </c>
+        <v>4459.0</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5">
         <v>5.0</v>
       </c>
       <c r="H11" s="5">
+        <v>6536.0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="K11" s="5">
         <v>11559.0</v>
       </c>
-      <c r="J11" s="5">
+      <c r="M11" s="5">
         <v>19.0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="N11" s="5">
         <v>61271.0</v>
       </c>
     </row>
@@ -10838,21 +11010,28 @@
         <v>2190.0</v>
       </c>
       <c r="D12" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4457.0</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
         <v>62.0</v>
       </c>
-      <c r="E12" s="5">
+      <c r="H12" s="5">
         <v>89795.0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="J12" s="5">
         <v>47.0</v>
       </c>
-      <c r="H12" s="5">
+      <c r="K12" s="5">
         <v>110217.0</v>
       </c>
-      <c r="J12" s="5">
+      <c r="M12" s="5">
         <v>24.0</v>
       </c>
-      <c r="K12" s="5">
+      <c r="N12" s="5">
         <v>77402.0</v>
       </c>
     </row>
@@ -10864,21 +11043,28 @@
         <v>1973.0</v>
       </c>
       <c r="D13" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5206.0</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
         <v>79.0</v>
       </c>
-      <c r="E13" s="5">
+      <c r="H13" s="5">
         <v>114927.0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="J13" s="5">
         <v>24.0</v>
       </c>
-      <c r="H13" s="5">
+      <c r="K13" s="5">
         <v>56343.0</v>
       </c>
-      <c r="J13" s="5">
+      <c r="M13" s="5">
         <v>32.0</v>
       </c>
-      <c r="K13" s="5">
+      <c r="N13" s="5">
         <v>103214.0</v>
       </c>
     </row>
@@ -10890,21 +11076,28 @@
         <v>1957.0</v>
       </c>
       <c r="D14" s="5">
+        <v>132.0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>152574.0</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <v>63.0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="H14" s="5">
         <v>91478.0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="J14" s="5">
         <v>48.0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="K14" s="5">
         <v>112663.0</v>
       </c>
-      <c r="J14" s="5">
+      <c r="M14" s="5">
         <v>217.0</v>
       </c>
-      <c r="K14" s="5">
+      <c r="N14" s="5">
         <v>702189.0</v>
       </c>
     </row>
@@ -10916,21 +11109,28 @@
         <v>1974.0</v>
       </c>
       <c r="D15" s="5">
+        <v>128.0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>148090.0</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
         <v>38.0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="H15" s="5">
         <v>55196.0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="J15" s="5">
         <v>67.0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="K15" s="5">
         <v>157193.0</v>
       </c>
-      <c r="J15" s="5">
+      <c r="M15" s="5">
         <v>180.0</v>
       </c>
-      <c r="K15" s="5">
+      <c r="N15" s="5">
         <v>582430.0</v>
       </c>
     </row>
@@ -10942,21 +11142,28 @@
         <v>2553.0</v>
       </c>
       <c r="D16" s="5">
+        <v>83.0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>96065.0</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>21.0</v>
       </c>
-      <c r="E16" s="5">
+      <c r="H16" s="5">
         <v>30503.0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="J16" s="5">
         <v>72.0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="K16" s="5">
         <v>168890.0</v>
       </c>
-      <c r="J16" s="5">
+      <c r="M16" s="5">
         <v>133.0</v>
       </c>
-      <c r="K16" s="5">
+      <c r="N16" s="5">
         <v>429933.0</v>
       </c>
     </row>
@@ -10968,21 +11175,28 @@
         <v>93481.0</v>
       </c>
       <c r="D17" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>42718.0</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <v>76.0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="H17" s="5">
         <v>110532.0</v>
       </c>
-      <c r="G17" s="5">
+      <c r="J17" s="5">
         <v>71.0</v>
       </c>
-      <c r="H17" s="5">
+      <c r="K17" s="5">
         <v>166451.0</v>
       </c>
-      <c r="J17" s="5">
+      <c r="M17" s="5">
         <v>72.0</v>
       </c>
-      <c r="K17" s="5">
+      <c r="N17" s="5">
         <v>233013.0</v>
       </c>
     </row>
@@ -10994,21 +11208,28 @@
         <v>156883.0</v>
       </c>
       <c r="D18" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>22003.0</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
         <v>123.0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="H18" s="5">
         <v>178965.0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="J18" s="5">
         <v>76.0</v>
       </c>
-      <c r="H18" s="5">
+      <c r="K18" s="5">
         <v>178002.0</v>
       </c>
-      <c r="J18" s="5">
+      <c r="M18" s="5">
         <v>36.0</v>
       </c>
-      <c r="K18" s="5">
+      <c r="N18" s="5">
         <v>116609.0</v>
       </c>
     </row>
@@ -11020,21 +11241,28 @@
         <v>125689.0</v>
       </c>
       <c r="D19" s="5">
+        <v>139.0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>161253.0</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>89.0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="H19" s="5">
         <v>129191.0</v>
       </c>
-      <c r="G19" s="5">
+      <c r="J19" s="5">
         <v>301.0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="K19" s="5">
         <v>706589.0</v>
       </c>
-      <c r="J19" s="5">
+      <c r="M19" s="5">
         <v>26.0</v>
       </c>
-      <c r="K19" s="5">
+      <c r="N19" s="5">
         <v>84719.0</v>
       </c>
     </row>
@@ -11046,21 +11274,28 @@
         <v>61594.0</v>
       </c>
       <c r="D20" s="5">
+        <v>136.0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>158166.0</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
         <v>79.0</v>
       </c>
-      <c r="E20" s="5">
+      <c r="H20" s="5">
         <v>115167.0</v>
       </c>
-      <c r="G20" s="5">
+      <c r="J20" s="5">
         <v>467.0</v>
       </c>
-      <c r="H20" s="5">
+      <c r="K20" s="5">
         <v>1095964.0</v>
       </c>
-      <c r="J20" s="5">
+      <c r="M20" s="5">
         <v>19.0</v>
       </c>
-      <c r="K20" s="5">
+      <c r="N20" s="5">
         <v>62507.0</v>
       </c>
     </row>
@@ -11072,21 +11307,28 @@
         <v>26695.0</v>
       </c>
       <c r="D21" s="5">
+        <v>125.0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>145571.0</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <v>98.0</v>
       </c>
-      <c r="E21" s="5">
+      <c r="H21" s="5">
         <v>142878.0</v>
       </c>
-      <c r="G21" s="5">
+      <c r="J21" s="5">
         <v>302.0</v>
       </c>
-      <c r="H21" s="5">
+      <c r="K21" s="5">
         <v>708024.0</v>
       </c>
-      <c r="J21" s="5">
+      <c r="M21" s="5">
         <v>16.0</v>
       </c>
-      <c r="K21" s="5">
+      <c r="N21" s="5">
         <v>53436.0</v>
       </c>
     </row>
@@ -11098,21 +11340,28 @@
         <v>24461.0</v>
       </c>
       <c r="D22" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>81524.0</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
         <v>63.0</v>
       </c>
-      <c r="E22" s="5">
+      <c r="H22" s="5">
         <v>91904.0</v>
       </c>
-      <c r="G22" s="5">
+      <c r="J22" s="5">
         <v>193.0</v>
       </c>
-      <c r="H22" s="5">
+      <c r="K22" s="5">
         <v>453499.0</v>
       </c>
-      <c r="J22" s="5">
+      <c r="M22" s="5">
         <v>17.0</v>
       </c>
-      <c r="K22" s="5">
+      <c r="N22" s="5">
         <v>57310.0</v>
       </c>
     </row>
@@ -11124,21 +11373,28 @@
         <v>42069.0</v>
       </c>
       <c r="D23" s="5">
+        <v>94.0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>109211.0</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
         <v>121.0</v>
       </c>
-      <c r="E23" s="5">
+      <c r="H23" s="5">
         <v>176265.0</v>
       </c>
-      <c r="G23" s="5">
+      <c r="J23" s="5">
         <v>140.0</v>
       </c>
-      <c r="H23" s="5">
+      <c r="K23" s="5">
         <v>330226.0</v>
       </c>
-      <c r="J23" s="5">
+      <c r="M23" s="5">
         <v>19.0</v>
       </c>
-      <c r="K23" s="5">
+      <c r="N23" s="5">
         <v>64093.0</v>
       </c>
     </row>
@@ -11153,18 +11409,25 @@
         <v>500.0</v>
       </c>
       <c r="E24" s="5">
+        <v>581494.0</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H24" s="5">
         <v>729459.0</v>
       </c>
-      <c r="G24" s="5">
+      <c r="J24" s="5">
         <v>91.0</v>
       </c>
-      <c r="H24" s="5">
+      <c r="K24" s="5">
         <v>223852.0</v>
       </c>
-      <c r="J24" s="5">
+      <c r="M24" s="5">
         <v>23.0</v>
       </c>
-      <c r="K24" s="5">
+      <c r="N24" s="5">
         <v>76999.0</v>
       </c>
     </row>
@@ -11176,21 +11439,28 @@
         <v>58554.0</v>
       </c>
       <c r="D25" s="5">
-        <v>500.0</v>
+        <v>34.0</v>
       </c>
       <c r="E25" s="5">
+        <v>39363.0</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H25" s="5">
         <v>729923.0</v>
       </c>
-      <c r="G25" s="5">
+      <c r="J25" s="5">
         <v>76.0</v>
       </c>
-      <c r="H25" s="5">
+      <c r="K25" s="5">
         <v>187336.0</v>
       </c>
-      <c r="J25" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="M25" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N25" s="5">
         <v>1634795.0</v>
       </c>
     </row>
@@ -11205,18 +11475,25 @@
         <v>500.0</v>
       </c>
       <c r="E26" s="5">
+        <v>580234.0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H26" s="5">
         <v>727322.0</v>
       </c>
-      <c r="G26" s="5">
+      <c r="J26" s="5">
         <v>61.0</v>
       </c>
-      <c r="H26" s="5">
+      <c r="K26" s="5">
         <v>151759.0</v>
       </c>
-      <c r="J26" s="5">
+      <c r="M26" s="5">
         <v>99.0</v>
       </c>
-      <c r="K26" s="5">
+      <c r="N26" s="5">
         <v>322127.0</v>
       </c>
     </row>
@@ -11231,18 +11508,25 @@
         <v>500.0</v>
       </c>
       <c r="E27" s="5">
+        <v>580577.0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H27" s="5">
         <v>725610.0</v>
       </c>
-      <c r="G27" s="5">
+      <c r="J27" s="5">
         <v>51.0</v>
       </c>
-      <c r="H27" s="5">
+      <c r="K27" s="5">
         <v>126965.0</v>
       </c>
-      <c r="J27" s="5">
+      <c r="M27" s="5">
         <v>348.0</v>
       </c>
-      <c r="K27" s="5">
+      <c r="N27" s="5">
         <v>1136349.0</v>
       </c>
     </row>
@@ -11257,18 +11541,25 @@
         <v>500.0</v>
       </c>
       <c r="E28" s="5">
+        <v>585977.0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H28" s="5">
         <v>772137.0</v>
       </c>
-      <c r="G28" s="5">
+      <c r="J28" s="5">
         <v>52.0</v>
       </c>
-      <c r="H28" s="5">
+      <c r="K28" s="5">
         <v>129666.0</v>
       </c>
-      <c r="J28" s="5">
+      <c r="M28" s="5">
         <v>416.0</v>
       </c>
-      <c r="K28" s="5">
+      <c r="N28" s="5">
         <v>1357820.0</v>
       </c>
     </row>
@@ -11283,18 +11574,25 @@
         <v>500.0</v>
       </c>
       <c r="E29" s="5">
+        <v>610452.0</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H29" s="5">
         <v>780881.0</v>
       </c>
-      <c r="G29" s="5">
+      <c r="J29" s="5">
         <v>59.0</v>
       </c>
-      <c r="H29" s="5">
+      <c r="K29" s="5">
         <v>147503.0</v>
       </c>
-      <c r="J29" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K29" s="5">
+      <c r="M29" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N29" s="5">
         <v>1631326.0</v>
       </c>
     </row>
@@ -11309,18 +11607,25 @@
         <v>500.0</v>
       </c>
       <c r="E30" s="5">
+        <v>622264.0</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H30" s="5">
         <v>782546.0</v>
       </c>
-      <c r="G30" s="5">
+      <c r="J30" s="5">
         <v>4.0</v>
       </c>
-      <c r="H30" s="5">
+      <c r="K30" s="5">
         <v>9271.0</v>
       </c>
-      <c r="J30" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="M30" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N30" s="5">
         <v>1630737.0</v>
       </c>
     </row>
@@ -11335,18 +11640,25 @@
         <v>500.0</v>
       </c>
       <c r="E31" s="5">
+        <v>623832.0</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H31" s="5">
         <v>784068.0</v>
       </c>
-      <c r="G31" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="J31" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K31" s="5">
         <v>1191167.0</v>
       </c>
-      <c r="J31" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K31" s="5">
+      <c r="M31" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N31" s="5">
         <v>1629738.0</v>
       </c>
     </row>
@@ -11361,18 +11673,25 @@
         <v>500.0</v>
       </c>
       <c r="E32" s="5">
+        <v>625380.0</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H32" s="5">
         <v>785303.0</v>
       </c>
-      <c r="G32" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="J32" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K32" s="5">
         <v>1189086.0</v>
       </c>
-      <c r="J32" s="5">
+      <c r="M32" s="5">
         <v>316.0</v>
       </c>
-      <c r="K32" s="5">
+      <c r="N32" s="5">
         <v>1027865.0</v>
       </c>
     </row>
@@ -11387,18 +11706,25 @@
         <v>500.0</v>
       </c>
       <c r="E33" s="5">
+        <v>627489.0</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H33" s="5">
         <v>786619.0</v>
       </c>
-      <c r="G33" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="J33" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K33" s="5">
         <v>1188525.0</v>
       </c>
-      <c r="J33" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="M33" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N33" s="5">
         <v>1630249.0</v>
       </c>
     </row>
@@ -11413,18 +11739,25 @@
         <v>500.0</v>
       </c>
       <c r="E34" s="5">
+        <v>628718.0</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H34" s="5">
         <v>787937.0</v>
       </c>
-      <c r="G34" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="J34" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K34" s="5">
         <v>1187867.0</v>
       </c>
-      <c r="J34" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="M34" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N34" s="5">
         <v>1630702.0</v>
       </c>
     </row>
@@ -11439,18 +11772,25 @@
         <v>500.0</v>
       </c>
       <c r="E35" s="5">
+        <v>628727.0</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H35" s="5">
         <v>789519.0</v>
       </c>
-      <c r="G35" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="J35" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K35" s="5">
         <v>1186747.0</v>
       </c>
-      <c r="J35" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K35" s="5">
+      <c r="M35" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N35" s="5">
         <v>1626892.0</v>
       </c>
     </row>
@@ -11465,18 +11805,25 @@
         <v>500.0</v>
       </c>
       <c r="E36" s="5">
+        <v>628749.0</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H36" s="5">
         <v>790199.0</v>
       </c>
-      <c r="G36" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="J36" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K36" s="5">
         <v>1183395.0</v>
       </c>
-      <c r="J36" s="5">
+      <c r="M36" s="5">
         <v>309.0</v>
       </c>
-      <c r="K36" s="5">
+      <c r="N36" s="5">
         <v>1006610.0</v>
       </c>
     </row>
@@ -11491,18 +11838,25 @@
         <v>500.0</v>
       </c>
       <c r="E37" s="5">
+        <v>628748.0</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H37" s="5">
         <v>790199.0</v>
       </c>
-      <c r="G37" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="J37" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K37" s="5">
         <v>1181562.0</v>
       </c>
-      <c r="J37" s="5">
+      <c r="M37" s="5">
         <v>51.0</v>
       </c>
-      <c r="K37" s="5">
+      <c r="N37" s="5">
         <v>165491.0</v>
       </c>
     </row>
@@ -11517,18 +11871,25 @@
         <v>500.0</v>
       </c>
       <c r="E38" s="5">
+        <v>628807.0</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H38" s="5">
         <v>790290.0</v>
       </c>
-      <c r="G38" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="J38" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K38" s="5">
         <v>1180394.0</v>
       </c>
-      <c r="J38" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K38" s="5">
+      <c r="M38" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N38" s="5">
         <v>1631141.0</v>
       </c>
     </row>
@@ -11543,18 +11904,25 @@
         <v>500.0</v>
       </c>
       <c r="E39" s="5">
+        <v>628863.0</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H39" s="5">
         <v>790213.0</v>
       </c>
-      <c r="G39" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H39" s="5">
+      <c r="J39" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K39" s="5">
         <v>1178960.0</v>
       </c>
-      <c r="J39" s="5">
+      <c r="M39" s="5">
         <v>280.0</v>
       </c>
-      <c r="K39" s="5">
+      <c r="N39" s="5">
         <v>911201.0</v>
       </c>
     </row>
@@ -11569,18 +11937,25 @@
         <v>500.0</v>
       </c>
       <c r="E40" s="5">
+        <v>628892.0</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H40" s="5">
         <v>745080.0</v>
       </c>
-      <c r="G40" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H40" s="5">
+      <c r="J40" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K40" s="5">
         <v>1176916.0</v>
       </c>
-      <c r="J40" s="5">
+      <c r="M40" s="5">
         <v>364.0</v>
       </c>
-      <c r="K40" s="5">
+      <c r="N40" s="5">
         <v>1183249.0</v>
       </c>
     </row>
@@ -11595,18 +11970,25 @@
         <v>500.0</v>
       </c>
       <c r="E41" s="5">
+        <v>628895.0</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H41" s="5">
         <v>744442.0</v>
       </c>
-      <c r="G41" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H41" s="5">
+      <c r="J41" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K41" s="5">
         <v>1176673.0</v>
       </c>
-      <c r="J41" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K41" s="5">
+      <c r="M41" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N41" s="5">
         <v>1624140.0</v>
       </c>
     </row>
@@ -11621,18 +12003,25 @@
         <v>500.0</v>
       </c>
       <c r="E42" s="5">
+        <v>628918.0</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H42" s="5">
         <v>741967.0</v>
       </c>
-      <c r="G42" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H42" s="5">
+      <c r="J42" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K42" s="5">
         <v>1176236.0</v>
       </c>
-      <c r="J42" s="5">
+      <c r="M42" s="5">
         <v>207.0</v>
       </c>
-      <c r="K42" s="5">
+      <c r="N42" s="5">
         <v>670929.0</v>
       </c>
     </row>
@@ -11647,18 +12036,25 @@
         <v>500.0</v>
       </c>
       <c r="E43" s="5">
+        <v>628992.0</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H43" s="5">
         <v>741652.0</v>
       </c>
-      <c r="G43" s="5">
+      <c r="J43" s="5">
         <v>424.0</v>
       </c>
-      <c r="H43" s="5">
+      <c r="K43" s="5">
         <v>997536.0</v>
       </c>
-      <c r="J43" s="5">
+      <c r="M43" s="5">
         <v>499.0</v>
       </c>
-      <c r="K43" s="5">
+      <c r="N43" s="5">
         <v>1619448.0</v>
       </c>
     </row>
@@ -11673,18 +12069,25 @@
         <v>500.0</v>
       </c>
       <c r="E44" s="5">
+        <v>629084.0</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H44" s="5">
         <v>743859.0</v>
       </c>
-      <c r="G44" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H44" s="5">
+      <c r="J44" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K44" s="5">
         <v>1176243.0</v>
       </c>
-      <c r="J44" s="5">
+      <c r="M44" s="5">
         <v>142.0</v>
       </c>
-      <c r="K44" s="5">
+      <c r="N44" s="5">
         <v>461613.0</v>
       </c>
     </row>
@@ -11699,18 +12102,25 @@
         <v>500.0</v>
       </c>
       <c r="E45" s="5">
+        <v>629043.0</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H45" s="5">
         <v>743235.0</v>
       </c>
-      <c r="G45" s="5">
+      <c r="J45" s="5">
         <v>498.0</v>
       </c>
-      <c r="H45" s="5">
+      <c r="K45" s="5">
         <v>1171266.0</v>
       </c>
-      <c r="J45" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K45" s="5">
+      <c r="M45" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N45" s="5">
         <v>1624666.0</v>
       </c>
     </row>
@@ -11725,18 +12135,25 @@
         <v>500.0</v>
       </c>
       <c r="E46" s="5">
+        <v>628825.0</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H46" s="5">
         <v>742831.0</v>
       </c>
-      <c r="G46" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H46" s="5">
+      <c r="J46" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K46" s="5">
         <v>1176080.0</v>
       </c>
-      <c r="J46" s="5">
+      <c r="M46" s="5">
         <v>212.0</v>
       </c>
-      <c r="K46" s="5">
+      <c r="N46" s="5">
         <v>686948.0</v>
       </c>
     </row>
@@ -11751,18 +12168,25 @@
         <v>500.0</v>
       </c>
       <c r="E47" s="5">
+        <v>592869.0</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H47" s="5">
         <v>740499.0</v>
       </c>
-      <c r="G47" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H47" s="5">
+      <c r="J47" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K47" s="5">
         <v>1182696.0</v>
       </c>
-      <c r="J47" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K47" s="5">
+      <c r="M47" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N47" s="5">
         <v>1621010.0</v>
       </c>
     </row>
@@ -11777,18 +12201,25 @@
         <v>500.0</v>
       </c>
       <c r="E48" s="5">
+        <v>590575.0</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H48" s="5">
         <v>736933.0</v>
       </c>
-      <c r="G48" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H48" s="5">
+      <c r="J48" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K48" s="5">
         <v>1181367.0</v>
       </c>
-      <c r="J48" s="5">
+      <c r="M48" s="5">
         <v>499.0</v>
       </c>
-      <c r="K48" s="5">
+      <c r="N48" s="5">
         <v>1621269.0</v>
       </c>
     </row>
@@ -11803,18 +12234,25 @@
         <v>500.0</v>
       </c>
       <c r="E49" s="5">
+        <v>590377.0</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H49" s="5">
         <v>737756.0</v>
       </c>
-      <c r="G49" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H49" s="5">
+      <c r="J49" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K49" s="5">
         <v>1181981.0</v>
       </c>
-      <c r="J49" s="5">
+      <c r="M49" s="5">
         <v>298.0</v>
       </c>
-      <c r="K49" s="5">
+      <c r="N49" s="5">
         <v>966418.0</v>
       </c>
     </row>
@@ -11829,18 +12267,25 @@
         <v>500.0</v>
       </c>
       <c r="E50" s="5">
+        <v>592279.0</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H50" s="5">
         <v>735454.0</v>
       </c>
-      <c r="G50" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H50" s="5">
+      <c r="J50" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K50" s="5">
         <v>1181252.0</v>
       </c>
-      <c r="J50" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K50" s="5">
+      <c r="M50" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N50" s="5">
         <v>1623526.0</v>
       </c>
     </row>
@@ -11855,18 +12300,25 @@
         <v>500.0</v>
       </c>
       <c r="E51" s="5">
+        <v>593221.0</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H51" s="5">
         <v>734518.0</v>
       </c>
-      <c r="G51" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H51" s="5">
+      <c r="J51" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K51" s="5">
         <v>1180468.0</v>
       </c>
-      <c r="J51" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K51" s="5">
+      <c r="M51" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N51" s="5">
         <v>1622351.0</v>
       </c>
     </row>
@@ -11881,18 +12333,25 @@
         <v>500.0</v>
       </c>
       <c r="E52" s="5">
+        <v>593900.0</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H52" s="5">
         <v>733609.0</v>
       </c>
-      <c r="G52" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H52" s="5">
+      <c r="J52" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K52" s="5">
         <v>1183936.0</v>
       </c>
-      <c r="J52" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K52" s="5">
+      <c r="M52" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N52" s="5">
         <v>1621291.0</v>
       </c>
     </row>
@@ -11907,18 +12366,25 @@
         <v>500.0</v>
       </c>
       <c r="E53" s="5">
+        <v>594455.0</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H53" s="5">
         <v>732590.0</v>
       </c>
-      <c r="G53" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H53" s="5">
+      <c r="J53" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K53" s="5">
         <v>1178034.0</v>
       </c>
-      <c r="J53" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K53" s="5">
+      <c r="M53" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N53" s="5">
         <v>1620163.0</v>
       </c>
     </row>
@@ -11933,18 +12399,25 @@
         <v>500.0</v>
       </c>
       <c r="E54" s="5">
+        <v>596680.0</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H54" s="5">
         <v>728874.0</v>
       </c>
-      <c r="G54" s="5">
+      <c r="J54" s="5">
         <v>96.0</v>
       </c>
-      <c r="H54" s="5">
+      <c r="K54" s="5">
         <v>224836.0</v>
       </c>
-      <c r="J54" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K54" s="5">
+      <c r="M54" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N54" s="5">
         <v>1617784.0</v>
       </c>
     </row>
@@ -11959,18 +12432,25 @@
         <v>500.0</v>
       </c>
       <c r="E55" s="5">
+        <v>596586.0</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H55" s="5">
         <v>726109.0</v>
       </c>
-      <c r="G55" s="5">
+      <c r="J55" s="5">
         <v>32.0</v>
       </c>
-      <c r="H55" s="5">
+      <c r="K55" s="5">
         <v>74809.0</v>
       </c>
-      <c r="J55" s="5">
+      <c r="M55" s="5">
         <v>98.0</v>
       </c>
-      <c r="K55" s="5">
+      <c r="N55" s="5">
         <v>316404.0</v>
       </c>
     </row>
@@ -11982,21 +12462,28 @@
         <v>8724.0</v>
       </c>
       <c r="D56" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>595438.0</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5">
         <v>221.0</v>
       </c>
-      <c r="E56" s="5">
+      <c r="H56" s="5">
         <v>318251.0</v>
       </c>
-      <c r="G56" s="5">
+      <c r="J56" s="5">
         <v>28.0</v>
       </c>
-      <c r="H56" s="5">
+      <c r="K56" s="5">
         <v>65503.0</v>
       </c>
-      <c r="J56" s="5">
+      <c r="M56" s="5">
         <v>5.0</v>
       </c>
-      <c r="K56" s="5">
+      <c r="N56" s="5">
         <v>14787.0</v>
       </c>
     </row>
@@ -12008,21 +12495,28 @@
         <v>8726.0</v>
       </c>
       <c r="D57" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>592545.0</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5">
         <v>5.0</v>
       </c>
-      <c r="E57" s="5">
+      <c r="H57" s="5">
         <v>6073.0</v>
       </c>
-      <c r="G57" s="5">
+      <c r="J57" s="5">
         <v>23.0</v>
       </c>
-      <c r="H57" s="5">
+      <c r="K57" s="5">
         <v>53756.0</v>
       </c>
-      <c r="J57" s="5">
+      <c r="M57" s="5">
         <v>80.0</v>
       </c>
-      <c r="K57" s="5">
+      <c r="N57" s="5">
         <v>259193.0</v>
       </c>
     </row>
@@ -12034,21 +12528,28 @@
         <v>8725.0</v>
       </c>
       <c r="D58" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>589477.0</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5">
         <v>5.0</v>
       </c>
-      <c r="E58" s="5">
+      <c r="H58" s="5">
         <v>6091.0</v>
       </c>
-      <c r="G58" s="5">
+      <c r="J58" s="5">
         <v>16.0</v>
       </c>
-      <c r="H58" s="5">
+      <c r="K58" s="5">
         <v>37321.0</v>
       </c>
-      <c r="J58" s="5">
+      <c r="M58" s="5">
         <v>94.0</v>
       </c>
-      <c r="K58" s="5">
+      <c r="N58" s="5">
         <v>304527.0</v>
       </c>
     </row>
@@ -12060,21 +12561,28 @@
         <v>8725.0</v>
       </c>
       <c r="D59" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>585880.0</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5">
         <v>5.0</v>
       </c>
-      <c r="E59" s="5">
+      <c r="H59" s="5">
         <v>6092.0</v>
       </c>
-      <c r="G59" s="5">
+      <c r="J59" s="5">
         <v>10.0</v>
       </c>
-      <c r="H59" s="5">
+      <c r="K59" s="5">
         <v>23254.0</v>
       </c>
-      <c r="J59" s="5">
+      <c r="M59" s="5">
         <v>64.0</v>
       </c>
-      <c r="K59" s="5">
+      <c r="N59" s="5">
         <v>206230.0</v>
       </c>
     </row>
@@ -12086,21 +12594,28 @@
         <v>8724.0</v>
       </c>
       <c r="D60" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>581846.0</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5">
         <v>5.0</v>
       </c>
-      <c r="E60" s="5">
+      <c r="H60" s="5">
         <v>6092.0</v>
       </c>
-      <c r="G60" s="5">
+      <c r="J60" s="5">
         <v>7.0</v>
       </c>
-      <c r="H60" s="5">
+      <c r="K60" s="5">
         <v>16265.0</v>
       </c>
-      <c r="J60" s="5">
+      <c r="M60" s="5">
         <v>19.0</v>
       </c>
-      <c r="K60" s="5">
+      <c r="N60" s="5">
         <v>60466.0</v>
       </c>
     </row>
@@ -12112,21 +12627,28 @@
         <v>9345.0</v>
       </c>
       <c r="D61" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>580909.0</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5">
         <v>58.0</v>
       </c>
-      <c r="E61" s="5">
+      <c r="H61" s="5">
         <v>84229.0</v>
       </c>
-      <c r="G61" s="5">
+      <c r="J61" s="5">
         <v>8.0</v>
       </c>
-      <c r="H61" s="5">
+      <c r="K61" s="5">
         <v>18657.0</v>
       </c>
-      <c r="J61" s="5">
+      <c r="M61" s="5">
         <v>58.0</v>
       </c>
-      <c r="K61" s="5">
+      <c r="N61" s="5">
         <v>187940.0</v>
       </c>
     </row>
@@ -12138,21 +12660,28 @@
         <v>9348.0</v>
       </c>
       <c r="D62" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>576516.0</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5">
         <v>66.0</v>
       </c>
-      <c r="E62" s="5">
+      <c r="H62" s="5">
         <v>95552.0</v>
       </c>
-      <c r="G62" s="5">
+      <c r="J62" s="5">
         <v>75.0</v>
       </c>
-      <c r="H62" s="5">
+      <c r="K62" s="5">
         <v>176399.0</v>
       </c>
-      <c r="J62" s="5">
+      <c r="M62" s="5">
         <v>53.0</v>
       </c>
-      <c r="K62" s="5">
+      <c r="N62" s="5">
         <v>171923.0</v>
       </c>
     </row>
@@ -12164,21 +12693,28 @@
         <v>9347.0</v>
       </c>
       <c r="D63" s="5">
+        <v>186.0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>213236.0</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5">
         <v>69.0</v>
       </c>
-      <c r="E63" s="5">
+      <c r="H63" s="5">
         <v>99969.0</v>
       </c>
-      <c r="G63" s="5">
+      <c r="J63" s="5">
         <v>88.0</v>
       </c>
-      <c r="H63" s="5">
+      <c r="K63" s="5">
         <v>207116.0</v>
       </c>
-      <c r="J63" s="5">
+      <c r="M63" s="5">
         <v>52.0</v>
       </c>
-      <c r="K63" s="5">
+      <c r="N63" s="5">
         <v>168577.0</v>
       </c>
     </row>
@@ -12190,21 +12726,28 @@
         <v>9348.0</v>
       </c>
       <c r="D64" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>33345.0</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5">
         <v>61.0</v>
       </c>
-      <c r="E64" s="5">
+      <c r="H64" s="5">
         <v>88388.0</v>
       </c>
-      <c r="G64" s="5">
+      <c r="J64" s="5">
         <v>98.0</v>
       </c>
-      <c r="H64" s="5">
+      <c r="K64" s="5">
         <v>230642.0</v>
       </c>
-      <c r="J64" s="5">
+      <c r="M64" s="5">
         <v>50.0</v>
       </c>
-      <c r="K64" s="5">
+      <c r="N64" s="5">
         <v>161870.0</v>
       </c>
     </row>
@@ -12216,21 +12759,28 @@
         <v>9348.0</v>
       </c>
       <c r="D65" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>63532.0</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5">
         <v>46.0</v>
       </c>
-      <c r="E65" s="5">
+      <c r="H65" s="5">
         <v>66788.0</v>
       </c>
-      <c r="G65" s="5">
+      <c r="J65" s="5">
         <v>92.0</v>
       </c>
-      <c r="H65" s="5">
+      <c r="K65" s="5">
         <v>216672.0</v>
       </c>
-      <c r="J65" s="5">
+      <c r="M65" s="5">
         <v>52.0</v>
       </c>
-      <c r="K65" s="5">
+      <c r="N65" s="5">
         <v>168475.0</v>
       </c>
     </row>
@@ -12242,21 +12792,28 @@
         <v>9348.0</v>
       </c>
       <c r="D66" s="5">
+        <v>52.0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>60251.0</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5">
         <v>39.0</v>
       </c>
-      <c r="E66" s="5">
+      <c r="H66" s="5">
         <v>56598.0</v>
       </c>
-      <c r="G66" s="5">
+      <c r="J66" s="5">
         <v>29.0</v>
       </c>
-      <c r="H66" s="5">
+      <c r="K66" s="5">
         <v>68251.0</v>
       </c>
-      <c r="J66" s="5">
+      <c r="M66" s="5">
         <v>54.0</v>
       </c>
-      <c r="K66" s="5">
+      <c r="N66" s="5">
         <v>175035.0</v>
       </c>
     </row>
@@ -12268,21 +12825,28 @@
         <v>9350.0</v>
       </c>
       <c r="D67" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>69569.0</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5">
         <v>26.0</v>
       </c>
-      <c r="E67" s="5">
+      <c r="H67" s="5">
         <v>37626.0</v>
       </c>
-      <c r="G67" s="5">
+      <c r="J67" s="5">
         <v>50.0</v>
       </c>
-      <c r="H67" s="5">
+      <c r="K67" s="5">
         <v>117773.0</v>
       </c>
-      <c r="J67" s="5">
+      <c r="M67" s="5">
         <v>41.0</v>
       </c>
-      <c r="K67" s="5">
+      <c r="N67" s="5">
         <v>132865.0</v>
       </c>
     </row>
@@ -12294,21 +12858,28 @@
         <v>9350.0</v>
       </c>
       <c r="D68" s="5">
+        <v>51.0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>58998.0</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5">
         <v>16.0</v>
       </c>
-      <c r="E68" s="5">
+      <c r="H68" s="5">
         <v>23105.0</v>
       </c>
-      <c r="G68" s="5">
+      <c r="J68" s="5">
         <v>56.0</v>
       </c>
-      <c r="H68" s="5">
+      <c r="K68" s="5">
         <v>131851.0</v>
       </c>
-      <c r="J68" s="5">
+      <c r="M68" s="5">
         <v>54.0</v>
       </c>
-      <c r="K68" s="5">
+      <c r="N68" s="5">
         <v>174820.0</v>
       </c>
     </row>
@@ -12320,21 +12891,28 @@
         <v>9351.0</v>
       </c>
       <c r="D69" s="5">
+        <v>43.0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>49708.0</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5">
         <v>18.0</v>
       </c>
-      <c r="E69" s="5">
+      <c r="H69" s="5">
         <v>26069.0</v>
       </c>
-      <c r="G69" s="5">
+      <c r="J69" s="5">
         <v>53.0</v>
       </c>
-      <c r="H69" s="5">
+      <c r="K69" s="5">
         <v>125000.0</v>
       </c>
-      <c r="J69" s="5">
+      <c r="M69" s="5">
         <v>50.0</v>
       </c>
-      <c r="K69" s="5">
+      <c r="N69" s="5">
         <v>162017.0</v>
       </c>
     </row>
@@ -12346,21 +12924,28 @@
         <v>9348.0</v>
       </c>
       <c r="D70" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>42901.0</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5">
         <v>25.0</v>
       </c>
-      <c r="E70" s="5">
+      <c r="H70" s="5">
         <v>36392.0</v>
       </c>
-      <c r="G70" s="5">
+      <c r="J70" s="5">
         <v>67.0</v>
       </c>
-      <c r="H70" s="5">
+      <c r="K70" s="5">
         <v>157960.0</v>
       </c>
-      <c r="J70" s="5">
+      <c r="M70" s="5">
         <v>60.0</v>
       </c>
-      <c r="K70" s="5">
+      <c r="N70" s="5">
         <v>194354.0</v>
       </c>
     </row>
@@ -12372,21 +12957,28 @@
         <v>9345.0</v>
       </c>
       <c r="D71" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>31380.0</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5">
         <v>107.0</v>
       </c>
-      <c r="E71" s="5">
+      <c r="H71" s="5">
         <v>156473.0</v>
       </c>
-      <c r="G71" s="5">
+      <c r="J71" s="5">
         <v>81.0</v>
       </c>
-      <c r="H71" s="5">
+      <c r="K71" s="5">
         <v>191082.0</v>
       </c>
-      <c r="J71" s="5">
+      <c r="M71" s="5">
         <v>74.0</v>
       </c>
-      <c r="K71" s="5">
+      <c r="N71" s="5">
         <v>240474.0</v>
       </c>
     </row>
@@ -12398,21 +12990,28 @@
         <v>9344.0</v>
       </c>
       <c r="D72" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>22107.0</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5">
         <v>81.0</v>
       </c>
-      <c r="E72" s="5">
+      <c r="H72" s="5">
         <v>118489.0</v>
       </c>
-      <c r="G72" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H72" s="5">
+      <c r="J72" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K72" s="5">
         <v>1179832.0</v>
       </c>
-      <c r="J72" s="5">
+      <c r="M72" s="5">
         <v>37.0</v>
       </c>
-      <c r="K72" s="5">
+      <c r="N72" s="5">
         <v>120558.0</v>
       </c>
     </row>
@@ -12424,21 +13023,28 @@
         <v>9344.0</v>
       </c>
       <c r="D73" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>15132.0</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5">
         <v>71.0</v>
       </c>
-      <c r="E73" s="5">
+      <c r="H73" s="5">
         <v>104200.0</v>
       </c>
-      <c r="G73" s="5">
+      <c r="J73" s="5">
         <v>4.0</v>
       </c>
-      <c r="H73" s="5">
+      <c r="K73" s="5">
         <v>8261.0</v>
       </c>
-      <c r="J73" s="5">
+      <c r="M73" s="5">
         <v>27.0</v>
       </c>
-      <c r="K73" s="5">
+      <c r="N73" s="5">
         <v>87543.0</v>
       </c>
     </row>
@@ -12450,21 +13056,28 @@
         <v>9344.0</v>
       </c>
       <c r="D74" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>23324.0</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5">
         <v>62.0</v>
       </c>
-      <c r="E74" s="5">
+      <c r="H74" s="5">
         <v>91119.0</v>
       </c>
-      <c r="G74" s="5">
+      <c r="J74" s="5">
         <v>4.0</v>
       </c>
-      <c r="H74" s="5">
+      <c r="K74" s="5">
         <v>8260.0</v>
       </c>
-      <c r="J74" s="5">
+      <c r="M74" s="5">
         <v>25.0</v>
       </c>
-      <c r="K74" s="5">
+      <c r="N74" s="5">
         <v>81068.0</v>
       </c>
     </row>
@@ -12476,21 +13089,28 @@
         <v>9343.0</v>
       </c>
       <c r="D75" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>33945.0</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5">
         <v>56.0</v>
       </c>
-      <c r="E75" s="5">
+      <c r="H75" s="5">
         <v>82355.0</v>
       </c>
-      <c r="G75" s="5">
+      <c r="J75" s="5">
         <v>4.0</v>
       </c>
-      <c r="H75" s="5">
+      <c r="K75" s="5">
         <v>8260.0</v>
       </c>
-      <c r="J75" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K75" s="5">
+      <c r="M75" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N75" s="5">
         <v>1619813.0</v>
       </c>
     </row>
@@ -12502,21 +13122,28 @@
         <v>9344.0</v>
       </c>
       <c r="D76" s="5">
+        <v>39.0</v>
+      </c>
+      <c r="E76" s="5">
+        <v>45657.0</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5">
         <v>52.0</v>
       </c>
-      <c r="E76" s="5">
+      <c r="H76" s="5">
         <v>76461.0</v>
       </c>
-      <c r="G76" s="5">
+      <c r="J76" s="5">
         <v>5.0</v>
       </c>
-      <c r="H76" s="5">
+      <c r="K76" s="5">
         <v>11510.0</v>
       </c>
-      <c r="J76" s="5">
+      <c r="M76" s="5">
         <v>4.0</v>
       </c>
-      <c r="K76" s="5">
+      <c r="N76" s="5">
         <v>11397.0</v>
       </c>
     </row>
@@ -12528,21 +13155,28 @@
         <v>9341.0</v>
       </c>
       <c r="D77" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>584975.0</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5">
         <v>51.0</v>
       </c>
-      <c r="E77" s="5">
+      <c r="H77" s="5">
         <v>74883.0</v>
       </c>
-      <c r="G77" s="5">
+      <c r="J77" s="5">
         <v>44.0</v>
       </c>
-      <c r="H77" s="5">
+      <c r="K77" s="5">
         <v>103712.0</v>
       </c>
-      <c r="J77" s="5">
+      <c r="M77" s="5">
         <v>4.0</v>
       </c>
-      <c r="K77" s="5">
+      <c r="N77" s="5">
         <v>11304.0</v>
       </c>
     </row>
@@ -12554,21 +13188,28 @@
         <v>9342.0</v>
       </c>
       <c r="D78" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>4091.0</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5">
         <v>52.0</v>
       </c>
-      <c r="E78" s="5">
+      <c r="H78" s="5">
         <v>76170.0</v>
       </c>
-      <c r="G78" s="5">
+      <c r="J78" s="5">
         <v>43.0</v>
       </c>
-      <c r="H78" s="5">
+      <c r="K78" s="5">
         <v>100741.0</v>
       </c>
-      <c r="J78" s="5">
+      <c r="M78" s="5">
         <v>4.0</v>
       </c>
-      <c r="K78" s="5">
+      <c r="N78" s="5">
         <v>11304.0</v>
       </c>
     </row>
@@ -12580,21 +13221,28 @@
         <v>9343.0</v>
       </c>
       <c r="D79" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E79" s="5">
+        <v>4089.0</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5">
         <v>54.0</v>
       </c>
-      <c r="E79" s="5">
+      <c r="H79" s="5">
         <v>79181.0</v>
       </c>
-      <c r="G79" s="5">
+      <c r="J79" s="5">
         <v>43.0</v>
       </c>
-      <c r="H79" s="5">
+      <c r="K79" s="5">
         <v>100811.0</v>
       </c>
-      <c r="J79" s="5">
+      <c r="M79" s="5">
         <v>17.0</v>
       </c>
-      <c r="K79" s="5">
+      <c r="N79" s="5">
         <v>54735.0</v>
       </c>
     </row>
@@ -12606,21 +13254,28 @@
         <v>9345.0</v>
       </c>
       <c r="D80" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>13881.0</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5">
         <v>35.0</v>
       </c>
-      <c r="E80" s="5">
+      <c r="H80" s="5">
         <v>51085.0</v>
-      </c>
-      <c r="G80" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="H80" s="5">
-        <v>18521.0</v>
       </c>
       <c r="J80" s="5">
         <v>8.0</v>
       </c>
       <c r="K80" s="5">
+        <v>18521.0</v>
+      </c>
+      <c r="M80" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="N80" s="5">
         <v>25431.0</v>
       </c>
     </row>
@@ -12632,21 +13287,28 @@
         <v>9347.0</v>
       </c>
       <c r="D81" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="E81" s="5">
+        <v>27830.0</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5">
         <v>4.0</v>
       </c>
-      <c r="E81" s="5">
+      <c r="H81" s="5">
         <v>5044.0</v>
-      </c>
-      <c r="G81" s="5">
-        <v>26.0</v>
-      </c>
-      <c r="H81" s="5">
-        <v>60822.0</v>
       </c>
       <c r="J81" s="5">
         <v>26.0</v>
       </c>
       <c r="K81" s="5">
+        <v>60822.0</v>
+      </c>
+      <c r="M81" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="N81" s="5">
         <v>84116.0</v>
       </c>
     </row>
@@ -12658,21 +13320,28 @@
         <v>9347.0</v>
       </c>
       <c r="D82" s="5">
+        <v>39.0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>45442.0</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5">
         <v>20.0</v>
       </c>
-      <c r="E82" s="5">
+      <c r="H82" s="5">
         <v>29009.0</v>
       </c>
-      <c r="G82" s="5">
+      <c r="J82" s="5">
         <v>39.0</v>
       </c>
-      <c r="H82" s="5">
+      <c r="K82" s="5">
         <v>91362.0</v>
       </c>
-      <c r="J82" s="5">
+      <c r="M82" s="5">
         <v>44.0</v>
       </c>
-      <c r="K82" s="5">
+      <c r="N82" s="5">
         <v>142426.0</v>
       </c>
     </row>
@@ -12684,21 +13353,28 @@
         <v>9346.0</v>
       </c>
       <c r="D83" s="5">
+        <v>56.0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>65229.0</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5">
         <v>30.0</v>
       </c>
-      <c r="E83" s="5">
+      <c r="H83" s="5">
         <v>43663.0</v>
       </c>
-      <c r="G83" s="5">
+      <c r="J83" s="5">
         <v>45.0</v>
       </c>
-      <c r="H83" s="5">
+      <c r="K83" s="5">
         <v>105488.0</v>
       </c>
-      <c r="J83" s="5">
+      <c r="M83" s="5">
         <v>50.0</v>
       </c>
-      <c r="K83" s="5">
+      <c r="N83" s="5">
         <v>161727.0</v>
       </c>
     </row>
@@ -12710,21 +13386,28 @@
         <v>9348.0</v>
       </c>
       <c r="D84" s="5">
+        <v>61.0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>71109.0</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5">
         <v>40.0</v>
       </c>
-      <c r="E84" s="5">
+      <c r="H84" s="5">
         <v>58348.0</v>
       </c>
-      <c r="G84" s="5">
+      <c r="J84" s="5">
         <v>14.0</v>
       </c>
-      <c r="H84" s="5">
+      <c r="K84" s="5">
         <v>32556.0</v>
       </c>
-      <c r="J84" s="5">
+      <c r="M84" s="5">
         <v>32.0</v>
       </c>
-      <c r="K84" s="5">
+      <c r="N84" s="5">
         <v>103402.0</v>
       </c>
     </row>
@@ -12736,21 +13419,28 @@
         <v>9347.0</v>
       </c>
       <c r="D85" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>29070.0</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5">
         <v>48.0</v>
       </c>
-      <c r="E85" s="5">
+      <c r="H85" s="5">
         <v>70058.0</v>
       </c>
-      <c r="G85" s="5">
+      <c r="J85" s="5">
         <v>31.0</v>
       </c>
-      <c r="H85" s="5">
+      <c r="K85" s="5">
         <v>72569.0</v>
       </c>
-      <c r="J85" s="5">
+      <c r="M85" s="5">
         <v>80.0</v>
       </c>
-      <c r="K85" s="5">
+      <c r="N85" s="5">
         <v>260164.0</v>
       </c>
     </row>
@@ -12762,21 +13452,28 @@
         <v>9343.0</v>
       </c>
       <c r="D86" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>34917.0</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5">
         <v>35.0</v>
       </c>
-      <c r="E86" s="5">
+      <c r="H86" s="5">
         <v>50902.0</v>
       </c>
-      <c r="G86" s="5">
+      <c r="J86" s="5">
         <v>39.0</v>
       </c>
-      <c r="H86" s="5">
+      <c r="K86" s="5">
         <v>91516.0</v>
       </c>
-      <c r="J86" s="5">
+      <c r="M86" s="5">
         <v>170.0</v>
       </c>
-      <c r="K86" s="5">
+      <c r="N86" s="5">
         <v>553797.0</v>
       </c>
     </row>
@@ -12788,21 +13485,28 @@
         <v>9343.0</v>
       </c>
       <c r="D87" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>57980.0</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5">
         <v>48.0</v>
       </c>
-      <c r="E87" s="5">
+      <c r="H87" s="5">
         <v>69876.0</v>
       </c>
-      <c r="G87" s="5">
+      <c r="J87" s="5">
         <v>375.0</v>
       </c>
-      <c r="H87" s="5">
+      <c r="K87" s="5">
         <v>885979.0</v>
       </c>
-      <c r="J87" s="5">
+      <c r="M87" s="5">
         <v>171.0</v>
       </c>
-      <c r="K87" s="5">
+      <c r="N87" s="5">
         <v>555860.0</v>
       </c>
     </row>
@@ -12814,21 +13518,28 @@
         <v>9345.0</v>
       </c>
       <c r="D88" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>41136.0</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5">
         <v>49.0</v>
       </c>
-      <c r="E88" s="5">
+      <c r="H88" s="5">
         <v>71334.0</v>
       </c>
-      <c r="G88" s="5">
+      <c r="J88" s="5">
         <v>442.0</v>
       </c>
-      <c r="H88" s="5">
+      <c r="K88" s="5">
         <v>1040494.0</v>
       </c>
-      <c r="J88" s="5">
+      <c r="M88" s="5">
         <v>162.0</v>
       </c>
-      <c r="K88" s="5">
+      <c r="N88" s="5">
         <v>527008.0</v>
       </c>
     </row>
@@ -12843,18 +13554,25 @@
         <v>500.0</v>
       </c>
       <c r="E89" s="5">
+        <v>584325.0</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H89" s="5">
         <v>732504.0</v>
       </c>
-      <c r="G89" s="5">
+      <c r="J89" s="5">
         <v>318.0</v>
       </c>
-      <c r="H89" s="5">
+      <c r="K89" s="5">
         <v>748575.0</v>
       </c>
-      <c r="J89" s="5">
+      <c r="M89" s="5">
         <v>162.0</v>
       </c>
-      <c r="K89" s="5">
+      <c r="N89" s="5">
         <v>527390.0</v>
       </c>
     </row>
@@ -12869,18 +13587,25 @@
         <v>500.0</v>
       </c>
       <c r="E90" s="5">
+        <v>586803.0</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H90" s="5">
         <v>729666.0</v>
       </c>
-      <c r="G90" s="5">
+      <c r="J90" s="5">
         <v>228.0</v>
       </c>
-      <c r="H90" s="5">
+      <c r="K90" s="5">
         <v>537166.0</v>
       </c>
-      <c r="J90" s="5">
+      <c r="M90" s="5">
         <v>171.0</v>
       </c>
-      <c r="K90" s="5">
+      <c r="N90" s="5">
         <v>556700.0</v>
       </c>
     </row>
@@ -12895,18 +13620,25 @@
         <v>500.0</v>
       </c>
       <c r="E91" s="5">
+        <v>608552.0</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H91" s="5">
         <v>731153.0</v>
       </c>
-      <c r="G91" s="5">
+      <c r="J91" s="5">
         <v>217.0</v>
       </c>
-      <c r="H91" s="5">
+      <c r="K91" s="5">
         <v>511667.0</v>
       </c>
-      <c r="J91" s="5">
+      <c r="M91" s="5">
         <v>201.0</v>
       </c>
-      <c r="K91" s="5">
+      <c r="N91" s="5">
         <v>654941.0</v>
       </c>
     </row>
@@ -12921,18 +13653,25 @@
         <v>500.0</v>
       </c>
       <c r="E92" s="5">
+        <v>624317.0</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H92" s="5">
         <v>758566.0</v>
       </c>
-      <c r="G92" s="5">
+      <c r="J92" s="5">
         <v>443.0</v>
       </c>
-      <c r="H92" s="5">
+      <c r="K92" s="5">
         <v>1044498.0</v>
       </c>
-      <c r="J92" s="5">
+      <c r="M92" s="5">
         <v>230.0</v>
       </c>
-      <c r="K92" s="5">
+      <c r="N92" s="5">
         <v>750227.0</v>
       </c>
     </row>
@@ -12947,18 +13686,25 @@
         <v>500.0</v>
       </c>
       <c r="E93" s="5">
+        <v>626255.0</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H93" s="5">
         <v>783604.0</v>
       </c>
-      <c r="G93" s="5">
+      <c r="J93" s="5">
         <v>4.0</v>
       </c>
-      <c r="H93" s="5">
+      <c r="K93" s="5">
         <v>9172.0</v>
       </c>
-      <c r="J93" s="5">
+      <c r="M93" s="5">
         <v>269.0</v>
       </c>
-      <c r="K93" s="5">
+      <c r="N93" s="5">
         <v>880083.0</v>
       </c>
     </row>
@@ -12973,18 +13719,25 @@
         <v>500.0</v>
       </c>
       <c r="E94" s="5">
+        <v>627645.0</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H94" s="5">
         <v>784905.0</v>
       </c>
-      <c r="G94" s="5">
+      <c r="J94" s="5">
         <v>4.0</v>
       </c>
-      <c r="H94" s="5">
+      <c r="K94" s="5">
         <v>9187.0</v>
       </c>
-      <c r="J94" s="5">
+      <c r="M94" s="5">
         <v>276.0</v>
       </c>
-      <c r="K94" s="5">
+      <c r="N94" s="5">
         <v>905596.0</v>
       </c>
     </row>
@@ -12999,18 +13752,25 @@
         <v>500.0</v>
       </c>
       <c r="E95" s="5">
+        <v>629194.0</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H95" s="5">
         <v>786229.0</v>
       </c>
-      <c r="G95" s="5">
+      <c r="J95" s="5">
         <v>60.0</v>
       </c>
-      <c r="H95" s="5">
+      <c r="K95" s="5">
         <v>150506.0</v>
       </c>
-      <c r="J95" s="5">
+      <c r="M95" s="5">
         <v>260.0</v>
       </c>
-      <c r="K95" s="5">
+      <c r="N95" s="5">
         <v>851314.0</v>
       </c>
     </row>
@@ -13025,18 +13785,25 @@
         <v>500.0</v>
       </c>
       <c r="E96" s="5">
+        <v>630969.0</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H96" s="5">
         <v>787501.0</v>
       </c>
-      <c r="G96" s="5">
+      <c r="J96" s="5">
         <v>4.0</v>
       </c>
-      <c r="H96" s="5">
+      <c r="K96" s="5">
         <v>9211.0</v>
       </c>
-      <c r="J96" s="5">
+      <c r="M96" s="5">
         <v>302.0</v>
       </c>
-      <c r="K96" s="5">
+      <c r="N96" s="5">
         <v>983410.0</v>
       </c>
     </row>
@@ -13051,18 +13818,25 @@
         <v>500.0</v>
       </c>
       <c r="E97" s="5">
+        <v>630980.0</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H97" s="5">
         <v>788751.0</v>
       </c>
-      <c r="G97" s="5">
+      <c r="J97" s="5">
         <v>4.0</v>
       </c>
-      <c r="H97" s="5">
+      <c r="K97" s="5">
         <v>9215.0</v>
       </c>
-      <c r="J97" s="5">
+      <c r="M97" s="5">
         <v>352.0</v>
       </c>
-      <c r="K97" s="5">
+      <c r="N97" s="5">
         <v>1144610.0</v>
       </c>
     </row>
@@ -13077,18 +13851,25 @@
         <v>500.0</v>
       </c>
       <c r="E98" s="5">
+        <v>630994.0</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H98" s="5">
         <v>789985.0</v>
       </c>
-      <c r="G98" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H98" s="5">
+      <c r="J98" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K98" s="5">
         <v>1196009.0</v>
       </c>
-      <c r="J98" s="5">
+      <c r="M98" s="5">
         <v>388.0</v>
       </c>
-      <c r="K98" s="5">
+      <c r="N98" s="5">
         <v>1262433.0</v>
       </c>
     </row>
@@ -13103,18 +13884,25 @@
         <v>500.0</v>
       </c>
       <c r="E99" s="5">
+        <v>630922.0</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H99" s="5">
         <v>791168.0</v>
       </c>
-      <c r="G99" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H99" s="5">
+      <c r="J99" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K99" s="5">
         <v>1187749.0</v>
       </c>
-      <c r="J99" s="5">
+      <c r="M99" s="5">
         <v>427.0</v>
       </c>
-      <c r="K99" s="5">
+      <c r="N99" s="5">
         <v>1387839.0</v>
       </c>
     </row>
@@ -13129,18 +13917,25 @@
         <v>500.0</v>
       </c>
       <c r="E100" s="5">
+        <v>630980.0</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H100" s="5">
         <v>792688.0</v>
       </c>
-      <c r="G100" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H100" s="5">
+      <c r="J100" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K100" s="5">
         <v>1191294.0</v>
       </c>
-      <c r="J100" s="5">
+      <c r="M100" s="5">
         <v>458.0</v>
       </c>
-      <c r="K100" s="5">
+      <c r="N100" s="5">
         <v>1490199.0</v>
       </c>
     </row>
@@ -13155,18 +13950,25 @@
         <v>500.0</v>
       </c>
       <c r="E101" s="5">
+        <v>630952.0</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H101" s="5">
         <v>792692.0</v>
       </c>
-      <c r="G101" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H101" s="5">
+      <c r="J101" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K101" s="5">
         <v>1191817.0</v>
       </c>
-      <c r="J101" s="5">
+      <c r="M101" s="5">
         <v>484.0</v>
       </c>
-      <c r="K101" s="5">
+      <c r="N101" s="5">
         <v>1574424.0</v>
       </c>
     </row>
@@ -13181,18 +13983,25 @@
         <v>500.0</v>
       </c>
       <c r="E102" s="5">
+        <v>630952.0</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H102" s="5">
         <v>792634.0</v>
       </c>
-      <c r="G102" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H102" s="5">
+      <c r="J102" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K102" s="5">
         <v>1191614.0</v>
       </c>
-      <c r="J102" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K102" s="5">
+      <c r="M102" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N102" s="5">
         <v>1632303.0</v>
       </c>
     </row>
@@ -13207,18 +14016,25 @@
         <v>500.0</v>
       </c>
       <c r="E103" s="5">
+        <v>630885.0</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H103" s="5">
         <v>792607.0</v>
       </c>
-      <c r="G103" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H103" s="5">
+      <c r="J103" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K103" s="5">
         <v>1191459.0</v>
       </c>
-      <c r="J103" s="5">
+      <c r="M103" s="5">
         <v>179.0</v>
       </c>
-      <c r="K103" s="5">
+      <c r="N103" s="5">
         <v>582891.0</v>
       </c>
     </row>
@@ -13233,18 +14049,25 @@
         <v>500.0</v>
       </c>
       <c r="E104" s="5">
+        <v>630816.0</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H104" s="5">
         <v>792394.0</v>
       </c>
-      <c r="G104" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H104" s="5">
+      <c r="J104" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K104" s="5">
         <v>1189067.0</v>
       </c>
-      <c r="J104" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K104" s="5">
+      <c r="M104" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N104" s="5">
         <v>1629978.0</v>
       </c>
     </row>
@@ -13259,18 +14082,25 @@
         <v>500.0</v>
       </c>
       <c r="E105" s="5">
+        <v>630821.0</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H105" s="5">
         <v>747458.0</v>
       </c>
-      <c r="G105" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H105" s="5">
+      <c r="J105" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K105" s="5">
         <v>1181381.0</v>
       </c>
-      <c r="J105" s="5">
+      <c r="M105" s="5">
         <v>168.0</v>
       </c>
-      <c r="K105" s="5">
+      <c r="N105" s="5">
         <v>543606.0</v>
       </c>
     </row>
@@ -13285,18 +14115,25 @@
         <v>500.0</v>
       </c>
       <c r="E106" s="5">
+        <v>630654.0</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H106" s="5">
         <v>746614.0</v>
       </c>
-      <c r="G106" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H106" s="5">
+      <c r="J106" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K106" s="5">
         <v>1178343.0</v>
       </c>
-      <c r="J106" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K106" s="5">
+      <c r="M106" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N106" s="5">
         <v>1617608.0</v>
       </c>
     </row>
@@ -13311,18 +14148,25 @@
         <v>500.0</v>
       </c>
       <c r="E107" s="5">
+        <v>630519.0</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H107" s="5">
         <v>741468.0</v>
       </c>
-      <c r="G107" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H107" s="5">
+      <c r="J107" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K107" s="5">
         <v>1177023.0</v>
       </c>
-      <c r="J107" s="5">
+      <c r="M107" s="5">
         <v>261.0</v>
       </c>
-      <c r="K107" s="5">
+      <c r="N107" s="5">
         <v>842611.0</v>
       </c>
     </row>
@@ -13337,18 +14181,25 @@
         <v>500.0</v>
       </c>
       <c r="E108" s="5">
+        <v>630394.0</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H108" s="5">
         <v>741258.0</v>
       </c>
-      <c r="G108" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H108" s="5">
+      <c r="J108" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K108" s="5">
         <v>1177029.0</v>
       </c>
-      <c r="J108" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="M108" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N108" s="5">
         <v>1614154.0</v>
       </c>
     </row>
@@ -13363,18 +14214,25 @@
         <v>500.0</v>
       </c>
       <c r="E109" s="5">
+        <v>594487.0</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H109" s="5">
         <v>743413.0</v>
       </c>
-      <c r="G109" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H109" s="5">
+      <c r="J109" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K109" s="5">
         <v>1175624.0</v>
       </c>
-      <c r="J109" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K109" s="5">
+      <c r="M109" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N109" s="5">
         <v>1614260.0</v>
       </c>
     </row>
@@ -13389,18 +14247,25 @@
         <v>500.0</v>
       </c>
       <c r="E110" s="5">
+        <v>590407.0</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H110" s="5">
         <v>743070.0</v>
       </c>
-      <c r="G110" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H110" s="5">
+      <c r="J110" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K110" s="5">
         <v>1175275.0</v>
       </c>
-      <c r="J110" s="5">
+      <c r="M110" s="5">
         <v>311.0</v>
       </c>
-      <c r="K110" s="5">
+      <c r="N110" s="5">
         <v>1003455.0</v>
       </c>
     </row>
@@ -13415,18 +14280,25 @@
         <v>500.0</v>
       </c>
       <c r="E111" s="5">
+        <v>589938.0</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H111" s="5">
         <v>742634.0</v>
       </c>
-      <c r="G111" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H111" s="5">
+      <c r="J111" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K111" s="5">
         <v>1175395.0</v>
       </c>
-      <c r="J111" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K111" s="5">
+      <c r="M111" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N111" s="5">
         <v>1615189.0</v>
       </c>
     </row>
@@ -13441,18 +14313,25 @@
         <v>500.0</v>
       </c>
       <c r="E112" s="5">
+        <v>591763.0</v>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H112" s="5">
         <v>740234.0</v>
       </c>
-      <c r="G112" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H112" s="5">
+      <c r="J112" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K112" s="5">
         <v>1173874.0</v>
       </c>
-      <c r="J112" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K112" s="5">
+      <c r="M112" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N112" s="5">
         <v>1615012.0</v>
       </c>
     </row>
@@ -13467,18 +14346,25 @@
         <v>500.0</v>
       </c>
       <c r="E113" s="5">
+        <v>592146.0</v>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H113" s="5">
         <v>736504.0</v>
       </c>
-      <c r="G113" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H113" s="5">
+      <c r="J113" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K113" s="5">
         <v>1175501.0</v>
       </c>
-      <c r="J113" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K113" s="5">
+      <c r="M113" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N113" s="5">
         <v>1613924.0</v>
       </c>
     </row>
@@ -13493,18 +14379,25 @@
         <v>500.0</v>
       </c>
       <c r="E114" s="5">
+        <v>592471.0</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H114" s="5">
         <v>735122.0</v>
       </c>
-      <c r="G114" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H114" s="5">
+      <c r="J114" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K114" s="5">
         <v>1175568.0</v>
       </c>
-      <c r="J114" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K114" s="5">
+      <c r="M114" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N114" s="5">
         <v>1615527.0</v>
       </c>
     </row>
@@ -13519,18 +14412,25 @@
         <v>500.0</v>
       </c>
       <c r="E115" s="5">
+        <v>594018.0</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H115" s="5">
         <v>732834.0</v>
       </c>
-      <c r="G115" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H115" s="5">
+      <c r="J115" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K115" s="5">
         <v>1175174.0</v>
       </c>
-      <c r="J115" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K115" s="5">
+      <c r="M115" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N115" s="5">
         <v>1614815.0</v>
       </c>
     </row>
@@ -13545,18 +14445,25 @@
         <v>500.0</v>
       </c>
       <c r="E116" s="5">
+        <v>594305.0</v>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H116" s="5">
         <v>731191.0</v>
       </c>
-      <c r="G116" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H116" s="5">
+      <c r="J116" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K116" s="5">
         <v>1170120.0</v>
       </c>
-      <c r="J116" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K116" s="5">
+      <c r="M116" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N116" s="5">
         <v>1613076.0</v>
       </c>
     </row>
@@ -13571,18 +14478,25 @@
         <v>500.0</v>
       </c>
       <c r="E117" s="5">
+        <v>594698.0</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H117" s="5">
         <v>729648.0</v>
       </c>
-      <c r="G117" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H117" s="5">
+      <c r="J117" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K117" s="5">
         <v>1166782.0</v>
       </c>
-      <c r="J117" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K117" s="5">
+      <c r="M117" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N117" s="5">
         <v>1613638.0</v>
       </c>
     </row>
@@ -13597,18 +14511,25 @@
         <v>500.0</v>
       </c>
       <c r="E118" s="5">
+        <v>593488.0</v>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H118" s="5">
         <v>728742.0</v>
       </c>
-      <c r="G118" s="5">
+      <c r="J118" s="5">
         <v>30.0</v>
       </c>
-      <c r="H118" s="5">
+      <c r="K118" s="5">
         <v>69939.0</v>
       </c>
-      <c r="J118" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K118" s="5">
+      <c r="M118" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N118" s="5">
         <v>1614891.0</v>
       </c>
     </row>
@@ -13623,18 +14544,25 @@
         <v>500.0</v>
       </c>
       <c r="E119" s="5">
+        <v>590165.0</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H119" s="5">
         <v>727615.0</v>
       </c>
-      <c r="G119" s="5">
+      <c r="J119" s="5">
         <v>30.0</v>
       </c>
-      <c r="H119" s="5">
+      <c r="K119" s="5">
         <v>69969.0</v>
       </c>
-      <c r="J119" s="5">
+      <c r="M119" s="5">
         <v>164.0</v>
       </c>
-      <c r="K119" s="5">
+      <c r="N119" s="5">
         <v>528939.0</v>
       </c>
     </row>
@@ -13649,18 +14577,25 @@
         <v>500.0</v>
       </c>
       <c r="E120" s="5">
+        <v>587166.0</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H120" s="5">
         <v>722193.0</v>
       </c>
-      <c r="G120" s="5">
+      <c r="J120" s="5">
         <v>24.0</v>
       </c>
-      <c r="H120" s="5">
+      <c r="K120" s="5">
         <v>55993.0</v>
       </c>
-      <c r="J120" s="5">
+      <c r="M120" s="5">
         <v>5.0</v>
       </c>
-      <c r="K120" s="5">
+      <c r="N120" s="5">
         <v>14797.0</v>
       </c>
     </row>
@@ -13672,21 +14607,28 @@
         <v>9341.0</v>
       </c>
       <c r="D121" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E121" s="5">
+        <v>584317.0</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5">
         <v>59.0</v>
       </c>
-      <c r="E121" s="5">
+      <c r="H121" s="5">
         <v>84519.0</v>
       </c>
-      <c r="G121" s="5">
+      <c r="J121" s="5">
         <v>17.0</v>
       </c>
-      <c r="H121" s="5">
+      <c r="K121" s="5">
         <v>39545.0</v>
       </c>
-      <c r="J121" s="5">
+      <c r="M121" s="5">
         <v>75.0</v>
       </c>
-      <c r="K121" s="5">
+      <c r="N121" s="5">
         <v>242189.0</v>
       </c>
     </row>
@@ -13698,21 +14640,28 @@
         <v>9340.0</v>
       </c>
       <c r="D122" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E122" s="5">
+        <v>581202.0</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5">
         <v>5.0</v>
       </c>
-      <c r="E122" s="5">
+      <c r="H122" s="5">
         <v>6086.0</v>
       </c>
-      <c r="G122" s="5">
+      <c r="J122" s="5">
         <v>10.0</v>
       </c>
-      <c r="H122" s="5">
+      <c r="K122" s="5">
         <v>23204.0</v>
       </c>
-      <c r="J122" s="5">
+      <c r="M122" s="5">
         <v>44.0</v>
       </c>
-      <c r="K122" s="5">
+      <c r="N122" s="5">
         <v>142276.0</v>
       </c>
     </row>
@@ -13724,21 +14673,28 @@
         <v>9341.0</v>
       </c>
       <c r="D123" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E123" s="5">
+        <v>579387.0</v>
+      </c>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5">
         <v>5.0</v>
       </c>
-      <c r="E123" s="5">
+      <c r="H123" s="5">
         <v>6087.0</v>
       </c>
-      <c r="G123" s="5">
+      <c r="J123" s="5">
         <v>7.0</v>
       </c>
-      <c r="H123" s="5">
+      <c r="K123" s="5">
         <v>16224.0</v>
       </c>
-      <c r="J123" s="5">
+      <c r="M123" s="5">
         <v>43.0</v>
       </c>
-      <c r="K123" s="5">
+      <c r="N123" s="5">
         <v>138936.0</v>
       </c>
     </row>
@@ -13750,21 +14706,28 @@
         <v>9342.0</v>
       </c>
       <c r="D124" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E124" s="5">
+        <v>574948.0</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5">
         <v>53.0</v>
       </c>
-      <c r="E124" s="5">
+      <c r="H124" s="5">
         <v>76751.0</v>
       </c>
-      <c r="G124" s="5">
+      <c r="J124" s="5">
         <v>8.0</v>
       </c>
-      <c r="H124" s="5">
+      <c r="K124" s="5">
         <v>18548.0</v>
       </c>
-      <c r="J124" s="5">
+      <c r="M124" s="5">
         <v>45.0</v>
       </c>
-      <c r="K124" s="5">
+      <c r="N124" s="5">
         <v>145741.0</v>
       </c>
     </row>
@@ -13776,21 +14739,28 @@
         <v>9344.0</v>
       </c>
       <c r="D125" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="E125" s="5">
+        <v>18106.0</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5">
         <v>62.0</v>
       </c>
-      <c r="E125" s="5">
+      <c r="H125" s="5">
         <v>89629.0</v>
       </c>
-      <c r="G125" s="5">
+      <c r="J125" s="5">
         <v>74.0</v>
       </c>
-      <c r="H125" s="5">
+      <c r="K125" s="5">
         <v>173371.0</v>
       </c>
-      <c r="J125" s="5">
+      <c r="M125" s="5">
         <v>47.0</v>
       </c>
-      <c r="K125" s="5">
+      <c r="N125" s="5">
         <v>151734.0</v>
       </c>
     </row>
@@ -13802,21 +14772,28 @@
         <v>9346.0</v>
       </c>
       <c r="D126" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E126" s="5">
+        <v>5613.0</v>
+      </c>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5">
         <v>64.0</v>
       </c>
-      <c r="E126" s="5">
+      <c r="H126" s="5">
         <v>92520.0</v>
       </c>
-      <c r="G126" s="5">
+      <c r="J126" s="5">
         <v>89.0</v>
       </c>
-      <c r="H126" s="5">
+      <c r="K126" s="5">
         <v>208804.0</v>
       </c>
-      <c r="J126" s="5">
+      <c r="M126" s="5">
         <v>47.0</v>
       </c>
-      <c r="K126" s="5">
+      <c r="N126" s="5">
         <v>151824.0</v>
       </c>
     </row>
@@ -13828,21 +14805,28 @@
         <v>9345.0</v>
       </c>
       <c r="D127" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E127" s="5">
+        <v>4832.0</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5">
         <v>54.0</v>
       </c>
-      <c r="E127" s="5">
+      <c r="H127" s="5">
         <v>78015.0</v>
       </c>
-      <c r="G127" s="5">
+      <c r="J127" s="5">
         <v>99.0</v>
       </c>
-      <c r="H127" s="5">
+      <c r="K127" s="5">
         <v>232337.0</v>
       </c>
-      <c r="J127" s="5">
+      <c r="M127" s="5">
         <v>56.0</v>
       </c>
-      <c r="K127" s="5">
+      <c r="N127" s="5">
         <v>180893.0</v>
       </c>
     </row>
@@ -13854,21 +14838,28 @@
         <v>9346.0</v>
       </c>
       <c r="D128" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E128" s="5">
+        <v>4849.0</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5">
         <v>43.0</v>
       </c>
-      <c r="E128" s="5">
+      <c r="H128" s="5">
         <v>62126.0</v>
       </c>
-      <c r="G128" s="5">
+      <c r="J128" s="5">
         <v>93.0</v>
       </c>
-      <c r="H128" s="5">
+      <c r="K128" s="5">
         <v>218487.0</v>
       </c>
-      <c r="J128" s="5">
+      <c r="M128" s="5">
         <v>55.0</v>
       </c>
-      <c r="K128" s="5">
+      <c r="N128" s="5">
         <v>177737.0</v>
       </c>
     </row>
@@ -13880,21 +14871,28 @@
         <v>9345.0</v>
       </c>
       <c r="D129" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="E129" s="5">
+        <v>69213.0</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5">
         <v>36.0</v>
       </c>
-      <c r="E129" s="5">
+      <c r="H129" s="5">
         <v>52065.0</v>
       </c>
-      <c r="G129" s="5">
+      <c r="J129" s="5">
         <v>25.0</v>
       </c>
-      <c r="H129" s="5">
+      <c r="K129" s="5">
         <v>58764.0</v>
       </c>
-      <c r="J129" s="5">
+      <c r="M129" s="5">
         <v>48.0</v>
       </c>
-      <c r="K129" s="5">
+      <c r="N129" s="5">
         <v>155118.0</v>
       </c>
     </row>
@@ -13906,21 +14904,28 @@
         <v>9346.0</v>
       </c>
       <c r="D130" s="5">
+        <v>64.0</v>
+      </c>
+      <c r="E130" s="5">
+        <v>73824.0</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5">
         <v>25.0</v>
       </c>
-      <c r="E130" s="5">
+      <c r="H130" s="5">
         <v>36122.0</v>
       </c>
-      <c r="G130" s="5">
+      <c r="J130" s="5">
         <v>47.0</v>
       </c>
-      <c r="H130" s="5">
+      <c r="K130" s="5">
         <v>110463.0</v>
       </c>
-      <c r="J130" s="5">
+      <c r="M130" s="5">
         <v>39.0</v>
       </c>
-      <c r="K130" s="5">
+      <c r="N130" s="5">
         <v>126026.0</v>
       </c>
     </row>
@@ -13932,21 +14937,28 @@
         <v>9346.0</v>
       </c>
       <c r="D131" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="E131" s="5">
+        <v>63318.0</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5">
         <v>15.0</v>
       </c>
-      <c r="E131" s="5">
+      <c r="H131" s="5">
         <v>21587.0</v>
       </c>
-      <c r="G131" s="5">
+      <c r="J131" s="5">
         <v>57.0</v>
       </c>
-      <c r="H131" s="5">
+      <c r="K131" s="5">
         <v>133934.0</v>
       </c>
-      <c r="J131" s="5">
+      <c r="M131" s="5">
         <v>53.0</v>
       </c>
-      <c r="K131" s="5">
+      <c r="N131" s="5">
         <v>171316.0</v>
       </c>
     </row>
@@ -13958,21 +14970,28 @@
         <v>9347.0</v>
       </c>
       <c r="D132" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E132" s="5">
+        <v>51930.0</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5">
         <v>15.0</v>
       </c>
-      <c r="E132" s="5">
+      <c r="H132" s="5">
         <v>21633.0</v>
       </c>
-      <c r="G132" s="5">
+      <c r="J132" s="5">
         <v>49.0</v>
       </c>
-      <c r="H132" s="5">
+      <c r="K132" s="5">
         <v>115396.0</v>
       </c>
-      <c r="J132" s="5">
+      <c r="M132" s="5">
         <v>47.0</v>
       </c>
-      <c r="K132" s="5">
+      <c r="N132" s="5">
         <v>151905.0</v>
       </c>
     </row>
@@ -13984,21 +15003,28 @@
         <v>9346.0</v>
       </c>
       <c r="D133" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="E133" s="5">
+        <v>46382.0</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5">
         <v>18.0</v>
       </c>
-      <c r="E133" s="5">
+      <c r="H133" s="5">
         <v>26058.0</v>
       </c>
-      <c r="G133" s="5">
+      <c r="J133" s="5">
         <v>64.0</v>
       </c>
-      <c r="H133" s="5">
+      <c r="K133" s="5">
         <v>150676.0</v>
       </c>
-      <c r="J133" s="5">
+      <c r="M133" s="5">
         <v>57.0</v>
       </c>
-      <c r="K133" s="5">
+      <c r="N133" s="5">
         <v>184767.0</v>
       </c>
     </row>
@@ -14010,21 +15036,28 @@
         <v>9346.0</v>
       </c>
       <c r="D134" s="5">
-        <v>78.0</v>
+        <v>28.0</v>
       </c>
       <c r="E134" s="5">
-        <v>113818.0</v>
-      </c>
+        <v>32455.0</v>
+      </c>
+      <c r="F134" s="5"/>
       <c r="G134" s="5">
         <v>78.0</v>
       </c>
       <c r="H134" s="5">
+        <v>113818.0</v>
+      </c>
+      <c r="J134" s="5">
+        <v>78.0</v>
+      </c>
+      <c r="K134" s="5">
         <v>183606.0</v>
       </c>
-      <c r="J134" s="5">
+      <c r="M134" s="5">
         <v>70.0</v>
       </c>
-      <c r="K134" s="5">
+      <c r="N134" s="5">
         <v>227376.0</v>
       </c>
     </row>
@@ -14036,21 +15069,28 @@
         <v>9346.0</v>
       </c>
       <c r="D135" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="E135" s="5">
+        <v>21938.0</v>
+      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5">
         <v>77.0</v>
       </c>
-      <c r="E135" s="5">
+      <c r="H135" s="5">
         <v>112404.0</v>
       </c>
-      <c r="G135" s="5">
+      <c r="J135" s="5">
         <v>53.0</v>
       </c>
-      <c r="H135" s="5">
+      <c r="K135" s="5">
         <v>124938.0</v>
       </c>
-      <c r="J135" s="5">
+      <c r="M135" s="5">
         <v>31.0</v>
       </c>
-      <c r="K135" s="5">
+      <c r="N135" s="5">
         <v>100630.0</v>
       </c>
     </row>
@@ -14062,21 +15102,28 @@
         <v>9344.0</v>
       </c>
       <c r="D136" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="E136" s="5">
+        <v>15044.0</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5">
         <v>69.0</v>
       </c>
-      <c r="E136" s="5">
+      <c r="H136" s="5">
         <v>101001.0</v>
       </c>
-      <c r="G136" s="5">
+      <c r="J136" s="5">
         <v>31.0</v>
       </c>
-      <c r="H136" s="5">
+      <c r="K136" s="5">
         <v>72915.0</v>
       </c>
-      <c r="J136" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K136" s="5">
+      <c r="M136" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N136" s="5">
         <v>1616756.0</v>
       </c>
     </row>
@@ -14088,21 +15135,28 @@
         <v>9344.0</v>
       </c>
       <c r="D137" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="E137" s="5">
+        <v>19738.0</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5">
         <v>61.0</v>
       </c>
-      <c r="E137" s="5">
+      <c r="H137" s="5">
         <v>89401.0</v>
       </c>
-      <c r="G137" s="5">
+      <c r="J137" s="5">
         <v>22.0</v>
       </c>
-      <c r="H137" s="5">
+      <c r="K137" s="5">
         <v>51717.0</v>
       </c>
-      <c r="J137" s="5">
+      <c r="M137" s="5">
         <v>4.0</v>
       </c>
-      <c r="K137" s="5">
+      <c r="N137" s="5">
         <v>11388.0</v>
       </c>
     </row>
@@ -14114,21 +15168,28 @@
         <v>9344.0</v>
       </c>
       <c r="D138" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="E138" s="5">
+        <v>26869.0</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5">
         <v>55.0</v>
       </c>
-      <c r="E138" s="5">
+      <c r="H138" s="5">
         <v>80699.0</v>
       </c>
-      <c r="G138" s="5">
+      <c r="J138" s="5">
         <v>21.0</v>
       </c>
-      <c r="H138" s="5">
+      <c r="K138" s="5">
         <v>49155.0</v>
       </c>
-      <c r="J138" s="5">
+      <c r="M138" s="5">
         <v>4.0</v>
       </c>
-      <c r="K138" s="5">
+      <c r="N138" s="5">
         <v>11387.0</v>
       </c>
     </row>
@@ -14140,21 +15201,28 @@
         <v>9344.0</v>
       </c>
       <c r="D139" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="E139" s="5">
+        <v>40817.0</v>
+      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5">
         <v>52.0</v>
       </c>
-      <c r="E139" s="5">
+      <c r="H139" s="5">
         <v>76373.0</v>
       </c>
-      <c r="G139" s="5">
+      <c r="J139" s="5">
         <v>19.0</v>
       </c>
-      <c r="H139" s="5">
+      <c r="K139" s="5">
         <v>44598.0</v>
       </c>
-      <c r="J139" s="5">
+      <c r="M139" s="5">
         <v>4.0</v>
       </c>
-      <c r="K139" s="5">
+      <c r="N139" s="5">
         <v>11299.0</v>
       </c>
     </row>
@@ -14166,21 +15234,28 @@
         <v>9342.0</v>
       </c>
       <c r="D140" s="5">
+        <v>63.0</v>
+      </c>
+      <c r="E140" s="5">
+        <v>73477.0</v>
+      </c>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5">
         <v>51.0</v>
       </c>
-      <c r="E140" s="5">
+      <c r="H140" s="5">
         <v>74683.0</v>
       </c>
-      <c r="G140" s="5">
+      <c r="J140" s="5">
         <v>28.0</v>
       </c>
-      <c r="H140" s="5">
+      <c r="K140" s="5">
         <v>65563.0</v>
       </c>
-      <c r="J140" s="5">
+      <c r="M140" s="5">
         <v>4.0</v>
       </c>
-      <c r="K140" s="5">
+      <c r="N140" s="5">
         <v>11306.0</v>
       </c>
     </row>
@@ -14192,21 +15267,28 @@
         <v>9344.0</v>
       </c>
       <c r="D141" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E141" s="5">
+        <v>52480.0</v>
+      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5">
         <v>52.0</v>
       </c>
-      <c r="E141" s="5">
+      <c r="H141" s="5">
         <v>76109.0</v>
       </c>
-      <c r="G141" s="5">
+      <c r="J141" s="5">
         <v>38.0</v>
       </c>
-      <c r="H141" s="5">
+      <c r="K141" s="5">
         <v>88972.0</v>
       </c>
-      <c r="J141" s="5">
+      <c r="M141" s="5">
         <v>39.0</v>
       </c>
-      <c r="K141" s="5">
+      <c r="N141" s="5">
         <v>125925.0</v>
       </c>
     </row>
@@ -14218,21 +15300,28 @@
         <v>9344.0</v>
       </c>
       <c r="D142" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E142" s="5">
+        <v>52399.0</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5">
         <v>54.0</v>
       </c>
-      <c r="E142" s="5">
+      <c r="H142" s="5">
         <v>79002.0</v>
       </c>
-      <c r="G142" s="5">
+      <c r="J142" s="5">
         <v>24.0</v>
       </c>
-      <c r="H142" s="5">
+      <c r="K142" s="5">
         <v>56127.0</v>
       </c>
-      <c r="J142" s="5">
+      <c r="M142" s="5">
         <v>48.0</v>
       </c>
-      <c r="K142" s="5">
+      <c r="N142" s="5">
         <v>155151.0</v>
       </c>
     </row>
@@ -14244,21 +15333,28 @@
         <v>9344.0</v>
       </c>
       <c r="D143" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="E143" s="5">
+        <v>53578.0</v>
+      </c>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5">
         <v>15.0</v>
       </c>
-      <c r="E143" s="5">
+      <c r="H143" s="5">
         <v>21344.0</v>
       </c>
-      <c r="G143" s="5">
+      <c r="J143" s="5">
         <v>12.0</v>
       </c>
-      <c r="H143" s="5">
+      <c r="K143" s="5">
         <v>27165.0</v>
       </c>
-      <c r="J143" s="5">
+      <c r="M143" s="5">
         <v>5.0</v>
       </c>
-      <c r="K143" s="5">
+      <c r="N143" s="5">
         <v>15673.0</v>
       </c>
     </row>
@@ -14270,21 +15366,28 @@
         <v>9343.0</v>
       </c>
       <c r="D144" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="E144" s="5">
+        <v>55911.0</v>
+      </c>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5">
         <v>4.0</v>
       </c>
-      <c r="E144" s="5">
+      <c r="H144" s="5">
         <v>5042.0</v>
       </c>
-      <c r="G144" s="5">
+      <c r="J144" s="5">
         <v>31.0</v>
       </c>
-      <c r="H144" s="5">
+      <c r="K144" s="5">
         <v>72556.0</v>
       </c>
-      <c r="J144" s="5">
+      <c r="M144" s="5">
         <v>33.0</v>
       </c>
-      <c r="K144" s="5">
+      <c r="N144" s="5">
         <v>106735.0</v>
       </c>
     </row>
@@ -14296,21 +15399,28 @@
         <v>9344.0</v>
       </c>
       <c r="D145" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="E145" s="5">
+        <v>58270.0</v>
+      </c>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5">
         <v>25.0</v>
       </c>
-      <c r="E145" s="5">
+      <c r="H145" s="5">
         <v>36368.0</v>
       </c>
-      <c r="G145" s="5">
+      <c r="J145" s="5">
         <v>37.0</v>
       </c>
-      <c r="H145" s="5">
+      <c r="K145" s="5">
         <v>86671.0</v>
       </c>
-      <c r="J145" s="5">
+      <c r="M145" s="5">
         <v>44.0</v>
       </c>
-      <c r="K145" s="5">
+      <c r="N145" s="5">
         <v>142205.0</v>
       </c>
     </row>
@@ -14322,21 +15432,28 @@
         <v>9345.0</v>
       </c>
       <c r="D146" s="5">
-        <v>34.0</v>
+        <v>53.0</v>
       </c>
       <c r="E146" s="5">
-        <v>49627.0</v>
-      </c>
+        <v>61782.0</v>
+      </c>
+      <c r="F146" s="5"/>
       <c r="G146" s="5">
         <v>34.0</v>
       </c>
       <c r="H146" s="5">
+        <v>49627.0</v>
+      </c>
+      <c r="J146" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="K146" s="5">
         <v>79706.0</v>
       </c>
-      <c r="J146" s="5">
+      <c r="M146" s="5">
         <v>47.0</v>
       </c>
-      <c r="K146" s="5">
+      <c r="N146" s="5">
         <v>152058.0</v>
       </c>
     </row>
@@ -14348,21 +15465,28 @@
         <v>9344.0</v>
       </c>
       <c r="D147" s="5">
+        <v>38.0</v>
+      </c>
+      <c r="E147" s="5">
+        <v>43918.0</v>
+      </c>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5">
         <v>44.0</v>
       </c>
-      <c r="E147" s="5">
+      <c r="H147" s="5">
         <v>64225.0</v>
       </c>
-      <c r="G147" s="5">
+      <c r="J147" s="5">
         <v>20.0</v>
       </c>
-      <c r="H147" s="5">
+      <c r="K147" s="5">
         <v>46677.0</v>
       </c>
-      <c r="J147" s="5">
+      <c r="M147" s="5">
         <v>12.0</v>
       </c>
-      <c r="K147" s="5">
+      <c r="N147" s="5">
         <v>38584.0</v>
       </c>
     </row>
@@ -14374,21 +15498,28 @@
         <v>9345.0</v>
       </c>
       <c r="D148" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E148" s="5">
+        <v>9173.0</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5">
         <v>21.0</v>
       </c>
-      <c r="E148" s="5">
+      <c r="H148" s="5">
         <v>30646.0</v>
       </c>
-      <c r="G148" s="5">
+      <c r="J148" s="5">
         <v>33.0</v>
       </c>
-      <c r="H148" s="5">
+      <c r="K148" s="5">
         <v>77338.0</v>
       </c>
-      <c r="J148" s="5">
+      <c r="M148" s="5">
         <v>125.0</v>
       </c>
-      <c r="K148" s="5">
+      <c r="N148" s="5">
         <v>406613.0</v>
       </c>
     </row>
@@ -14400,21 +15531,28 @@
         <v>9345.0</v>
       </c>
       <c r="D149" s="5">
+        <v>41.0</v>
+      </c>
+      <c r="E149" s="5">
+        <v>47565.0</v>
+      </c>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5">
         <v>46.0</v>
       </c>
-      <c r="E149" s="5">
+      <c r="H149" s="5">
         <v>67054.0</v>
       </c>
-      <c r="G149" s="5">
+      <c r="J149" s="5">
         <v>48.0</v>
       </c>
-      <c r="H149" s="5">
+      <c r="K149" s="5">
         <v>112697.0</v>
       </c>
-      <c r="J149" s="5">
+      <c r="M149" s="5">
         <v>122.0</v>
       </c>
-      <c r="K149" s="5">
+      <c r="N149" s="5">
         <v>394820.0</v>
       </c>
     </row>
@@ -14426,21 +15564,28 @@
         <v>9346.0</v>
       </c>
       <c r="D150" s="5">
+        <v>42.0</v>
+      </c>
+      <c r="E150" s="5">
+        <v>48153.0</v>
+      </c>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5">
         <v>53.0</v>
       </c>
-      <c r="E150" s="5">
+      <c r="H150" s="5">
         <v>77323.0</v>
       </c>
-      <c r="G150" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H150" s="5">
+      <c r="J150" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K150" s="5">
         <v>1180778.0</v>
       </c>
-      <c r="J150" s="5">
+      <c r="M150" s="5">
         <v>118.0</v>
       </c>
-      <c r="K150" s="5">
+      <c r="N150" s="5">
         <v>383260.0</v>
       </c>
     </row>
@@ -14452,21 +15597,28 @@
         <v>9345.0</v>
       </c>
       <c r="D151" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E151" s="5">
+        <v>580943.0</v>
+      </c>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5">
         <v>42.0</v>
       </c>
-      <c r="E151" s="5">
+      <c r="H151" s="5">
         <v>61226.0</v>
       </c>
-      <c r="G151" s="5">
+      <c r="J151" s="5">
         <v>331.0</v>
       </c>
-      <c r="H151" s="5">
+      <c r="K151" s="5">
         <v>778553.0</v>
       </c>
-      <c r="J151" s="5">
+      <c r="M151" s="5">
         <v>116.0</v>
       </c>
-      <c r="K151" s="5">
+      <c r="N151" s="5">
         <v>375690.0</v>
       </c>
     </row>
@@ -14481,18 +15633,25 @@
         <v>500.0</v>
       </c>
       <c r="E152" s="5">
+        <v>581718.0</v>
+      </c>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H152" s="5">
         <v>731455.0</v>
       </c>
-      <c r="G152" s="5">
+      <c r="J152" s="5">
         <v>232.0</v>
       </c>
-      <c r="H152" s="5">
+      <c r="K152" s="5">
         <v>545475.0</v>
       </c>
-      <c r="J152" s="5">
+      <c r="M152" s="5">
         <v>116.0</v>
       </c>
-      <c r="K152" s="5">
+      <c r="N152" s="5">
         <v>375815.0</v>
       </c>
     </row>
@@ -14507,18 +15666,25 @@
         <v>500.0</v>
       </c>
       <c r="E153" s="5">
+        <v>592660.0</v>
+      </c>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H153" s="5">
         <v>742077.0</v>
       </c>
-      <c r="G153" s="5">
+      <c r="J153" s="5">
         <v>252.0</v>
       </c>
-      <c r="H153" s="5">
+      <c r="K153" s="5">
         <v>592701.0</v>
       </c>
-      <c r="J153" s="5">
+      <c r="M153" s="5">
         <v>124.0</v>
       </c>
-      <c r="K153" s="5">
+      <c r="N153" s="5">
         <v>402191.0</v>
       </c>
     </row>
@@ -14533,18 +15699,25 @@
         <v>500.0</v>
       </c>
       <c r="E154" s="5">
+        <v>618873.0</v>
+      </c>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H154" s="5">
         <v>751793.0</v>
       </c>
-      <c r="G154" s="5">
+      <c r="J154" s="5">
         <v>194.0</v>
       </c>
-      <c r="H154" s="5">
+      <c r="K154" s="5">
         <v>457011.0</v>
       </c>
-      <c r="J154" s="5">
+      <c r="M154" s="5">
         <v>383.0</v>
       </c>
-      <c r="K154" s="5">
+      <c r="N154" s="5">
         <v>1246123.0</v>
       </c>
     </row>
@@ -14559,18 +15732,25 @@
         <v>500.0</v>
       </c>
       <c r="E155" s="5">
+        <v>622147.0</v>
+      </c>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H155" s="5">
         <v>780956.0</v>
       </c>
-      <c r="G155" s="5">
+      <c r="J155" s="5">
         <v>106.0</v>
       </c>
-      <c r="H155" s="5">
+      <c r="K155" s="5">
         <v>248603.0</v>
       </c>
-      <c r="J155" s="5">
+      <c r="M155" s="5">
         <v>302.0</v>
       </c>
-      <c r="K155" s="5">
+      <c r="N155" s="5">
         <v>985059.0</v>
       </c>
     </row>
@@ -14585,18 +15765,25 @@
         <v>500.0</v>
       </c>
       <c r="E156" s="5">
+        <v>623819.0</v>
+      </c>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H156" s="5">
         <v>782307.0</v>
-      </c>
-      <c r="G156" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="H156" s="5">
-        <v>9178.0</v>
       </c>
       <c r="J156" s="5">
         <v>4.0</v>
       </c>
       <c r="K156" s="5">
+        <v>9178.0</v>
+      </c>
+      <c r="M156" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N156" s="5">
         <v>12472.0</v>
       </c>
     </row>
@@ -14611,18 +15798,25 @@
         <v>500.0</v>
       </c>
       <c r="E157" s="5">
+        <v>625231.0</v>
+      </c>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H157" s="5">
         <v>783570.0</v>
       </c>
-      <c r="G157" s="5">
+      <c r="J157" s="5">
         <v>71.0</v>
       </c>
-      <c r="H157" s="5">
+      <c r="K157" s="5">
         <v>177597.0</v>
       </c>
-      <c r="J157" s="5">
+      <c r="M157" s="5">
         <v>259.0</v>
       </c>
-      <c r="K157" s="5">
+      <c r="N157" s="5">
         <v>847917.0</v>
       </c>
     </row>
@@ -14637,18 +15831,25 @@
         <v>500.0</v>
       </c>
       <c r="E158" s="5">
+        <v>626790.0</v>
+      </c>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H158" s="5">
         <v>784794.0</v>
       </c>
-      <c r="G158" s="5">
+      <c r="J158" s="5">
         <v>4.0</v>
       </c>
-      <c r="H158" s="5">
+      <c r="K158" s="5">
         <v>9198.0</v>
       </c>
-      <c r="J158" s="5">
+      <c r="M158" s="5">
         <v>247.0</v>
       </c>
-      <c r="K158" s="5">
+      <c r="N158" s="5">
         <v>808060.0</v>
       </c>
     </row>
@@ -14663,18 +15864,25 @@
         <v>500.0</v>
       </c>
       <c r="E159" s="5">
+        <v>628720.0</v>
+      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H159" s="5">
         <v>786037.0</v>
       </c>
-      <c r="G159" s="5">
+      <c r="J159" s="5">
         <v>4.0</v>
       </c>
-      <c r="H159" s="5">
+      <c r="K159" s="5">
         <v>9208.0</v>
       </c>
-      <c r="J159" s="5">
+      <c r="M159" s="5">
         <v>280.0</v>
       </c>
-      <c r="K159" s="5">
+      <c r="N159" s="5">
         <v>915697.0</v>
       </c>
     </row>
@@ -14689,18 +15897,25 @@
         <v>500.0</v>
       </c>
       <c r="E160" s="5">
+        <v>628714.0</v>
+      </c>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H160" s="5">
         <v>787387.0</v>
       </c>
-      <c r="G160" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H160" s="5">
+      <c r="J160" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K160" s="5">
         <v>1191148.0</v>
       </c>
-      <c r="J160" s="5">
+      <c r="M160" s="5">
         <v>327.0</v>
       </c>
-      <c r="K160" s="5">
+      <c r="N160" s="5">
         <v>1068941.0</v>
       </c>
     </row>
@@ -14715,18 +15930,25 @@
         <v>500.0</v>
       </c>
       <c r="E161" s="5">
+        <v>628765.0</v>
+      </c>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H161" s="5">
         <v>788653.0</v>
       </c>
-      <c r="G161" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H161" s="5">
+      <c r="J161" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K161" s="5">
         <v>1187436.0</v>
       </c>
-      <c r="J161" s="5">
+      <c r="M161" s="5">
         <v>363.0</v>
       </c>
-      <c r="K161" s="5">
+      <c r="N161" s="5">
         <v>1186765.0</v>
       </c>
     </row>
@@ -14741,18 +15963,25 @@
         <v>500.0</v>
       </c>
       <c r="E162" s="5">
+        <v>628800.0</v>
+      </c>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H162" s="5">
         <v>789970.0</v>
       </c>
-      <c r="G162" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H162" s="5">
+      <c r="J162" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K162" s="5">
         <v>1190605.0</v>
       </c>
-      <c r="J162" s="5">
+      <c r="M162" s="5">
         <v>389.0</v>
       </c>
-      <c r="K162" s="5">
+      <c r="N162" s="5">
         <v>1270994.0</v>
       </c>
     </row>
@@ -14767,18 +15996,25 @@
         <v>500.0</v>
       </c>
       <c r="E163" s="5">
+        <v>628932.0</v>
+      </c>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H163" s="5">
         <v>790141.0</v>
       </c>
-      <c r="G163" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H163" s="5">
+      <c r="J163" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K163" s="5">
         <v>1187878.0</v>
       </c>
-      <c r="J163" s="5">
+      <c r="M163" s="5">
         <v>432.0</v>
       </c>
-      <c r="K163" s="5">
+      <c r="N163" s="5">
         <v>1411551.0</v>
       </c>
     </row>
@@ -14793,18 +16029,25 @@
         <v>500.0</v>
       </c>
       <c r="E164" s="5">
+        <v>628963.0</v>
+      </c>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H164" s="5">
         <v>790133.0</v>
       </c>
-      <c r="G164" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H164" s="5">
+      <c r="J164" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K164" s="5">
         <v>1187723.0</v>
       </c>
-      <c r="J164" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K164" s="5">
+      <c r="M164" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N164" s="5">
         <v>1635259.0</v>
       </c>
     </row>
@@ -14819,18 +16062,25 @@
         <v>500.0</v>
       </c>
       <c r="E165" s="5">
+        <v>628953.0</v>
+      </c>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H165" s="5">
         <v>790177.0</v>
       </c>
-      <c r="G165" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H165" s="5">
+      <c r="J165" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K165" s="5">
         <v>1186476.0</v>
       </c>
-      <c r="J165" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K165" s="5">
+      <c r="M165" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N165" s="5">
         <v>1634017.0</v>
       </c>
     </row>
@@ -14845,18 +16095,25 @@
         <v>500.0</v>
       </c>
       <c r="E166" s="5">
+        <v>628944.0</v>
+      </c>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H166" s="5">
         <v>790231.0</v>
       </c>
-      <c r="G166" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H166" s="5">
+      <c r="J166" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K166" s="5">
         <v>1184704.0</v>
       </c>
-      <c r="J166" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K166" s="5">
+      <c r="M166" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N166" s="5">
         <v>1629762.0</v>
       </c>
     </row>
@@ -14871,18 +16128,25 @@
         <v>500.0</v>
       </c>
       <c r="E167" s="5">
+        <v>628933.0</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H167" s="5">
         <v>789937.0</v>
       </c>
-      <c r="G167" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H167" s="5">
+      <c r="J167" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K167" s="5">
         <v>1182351.0</v>
       </c>
-      <c r="J167" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K167" s="5">
+      <c r="M167" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N167" s="5">
         <v>1624146.0</v>
       </c>
     </row>
@@ -14897,18 +16161,25 @@
         <v>500.0</v>
       </c>
       <c r="E168" s="5">
+        <v>629136.0</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H168" s="5">
         <v>744498.0</v>
       </c>
-      <c r="G168" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H168" s="5">
+      <c r="J168" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K168" s="5">
         <v>1179539.0</v>
       </c>
-      <c r="J168" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K168" s="5">
+      <c r="M168" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N168" s="5">
         <v>1618422.0</v>
       </c>
     </row>
@@ -14923,18 +16194,25 @@
         <v>500.0</v>
       </c>
       <c r="E169" s="5">
+        <v>629107.0</v>
+      </c>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H169" s="5">
         <v>741858.0</v>
       </c>
-      <c r="G169" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H169" s="5">
+      <c r="J169" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K169" s="5">
         <v>1179246.0</v>
       </c>
-      <c r="J169" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K169" s="5">
+      <c r="M169" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N169" s="5">
         <v>1617925.0</v>
       </c>
     </row>
@@ -14949,18 +16227,25 @@
         <v>500.0</v>
       </c>
       <c r="E170" s="5">
+        <v>629083.0</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H170" s="5">
         <v>741852.0</v>
       </c>
-      <c r="G170" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H170" s="5">
+      <c r="J170" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K170" s="5">
         <v>1176974.0</v>
       </c>
-      <c r="J170" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K170" s="5">
+      <c r="M170" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N170" s="5">
         <v>1617781.0</v>
       </c>
     </row>
@@ -14975,18 +16260,25 @@
         <v>500.0</v>
       </c>
       <c r="E171" s="5">
+        <v>628712.0</v>
+      </c>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H171" s="5">
         <v>744070.0</v>
       </c>
-      <c r="G171" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H171" s="5">
+      <c r="J171" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K171" s="5">
         <v>1175996.0</v>
       </c>
-      <c r="J171" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K171" s="5">
+      <c r="M171" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N171" s="5">
         <v>1616738.0</v>
       </c>
     </row>
@@ -15001,18 +16293,25 @@
         <v>500.0</v>
       </c>
       <c r="E172" s="5">
+        <v>592534.0</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H172" s="5">
         <v>743571.0</v>
       </c>
-      <c r="G172" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H172" s="5">
+      <c r="J172" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K172" s="5">
         <v>1177921.0</v>
       </c>
-      <c r="J172" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K172" s="5">
+      <c r="M172" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N172" s="5">
         <v>1618406.0</v>
       </c>
     </row>
@@ -15027,18 +16326,25 @@
         <v>500.0</v>
       </c>
       <c r="E173" s="5">
+        <v>590581.0</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H173" s="5">
         <v>743546.0</v>
       </c>
-      <c r="G173" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H173" s="5">
+      <c r="J173" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K173" s="5">
         <v>1177473.0</v>
       </c>
-      <c r="J173" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K173" s="5">
+      <c r="M173" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N173" s="5">
         <v>1618848.0</v>
       </c>
     </row>
@@ -15053,18 +16359,25 @@
         <v>500.0</v>
       </c>
       <c r="E174" s="5">
+        <v>592304.0</v>
+      </c>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H174" s="5">
         <v>741240.0</v>
       </c>
-      <c r="G174" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H174" s="5">
+      <c r="J174" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K174" s="5">
         <v>1177130.0</v>
       </c>
-      <c r="J174" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K174" s="5">
+      <c r="M174" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N174" s="5">
         <v>1618481.0</v>
       </c>
     </row>
@@ -15079,18 +16392,25 @@
         <v>500.0</v>
       </c>
       <c r="E175" s="5">
+        <v>592289.0</v>
+      </c>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H175" s="5">
         <v>737693.0</v>
       </c>
-      <c r="G175" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H175" s="5">
+      <c r="J175" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K175" s="5">
         <v>1181955.0</v>
       </c>
-      <c r="J175" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K175" s="5">
+      <c r="M175" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N175" s="5">
         <v>1617621.0</v>
       </c>
     </row>
@@ -15105,18 +16425,25 @@
         <v>500.0</v>
       </c>
       <c r="E176" s="5">
+        <v>593501.0</v>
+      </c>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H176" s="5">
         <v>738147.0</v>
       </c>
-      <c r="G176" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H176" s="5">
+      <c r="J176" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K176" s="5">
         <v>1181518.0</v>
       </c>
-      <c r="J176" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K176" s="5">
+      <c r="M176" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N176" s="5">
         <v>1623152.0</v>
       </c>
     </row>
@@ -15131,18 +16458,25 @@
         <v>500.0</v>
       </c>
       <c r="E177" s="5">
+        <v>594589.0</v>
+      </c>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H177" s="5">
         <v>735918.0</v>
       </c>
-      <c r="G177" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H177" s="5">
+      <c r="J177" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K177" s="5">
         <v>1182969.0</v>
       </c>
-      <c r="J177" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K177" s="5">
+      <c r="M177" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N177" s="5">
         <v>1622233.0</v>
       </c>
     </row>
@@ -15157,18 +16491,25 @@
         <v>500.0</v>
       </c>
       <c r="E178" s="5">
+        <v>597202.0</v>
+      </c>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H178" s="5">
         <v>734460.0</v>
       </c>
-      <c r="G178" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H178" s="5">
+      <c r="J178" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K178" s="5">
         <v>1180263.0</v>
       </c>
-      <c r="J178" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K178" s="5">
+      <c r="M178" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N178" s="5">
         <v>1621415.0</v>
       </c>
     </row>
@@ -15183,18 +16524,25 @@
         <v>500.0</v>
       </c>
       <c r="E179" s="5">
+        <v>597039.0</v>
+      </c>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H179" s="5">
         <v>733626.0</v>
       </c>
-      <c r="G179" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H179" s="5">
+      <c r="J179" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="K179" s="5">
         <v>1173688.0</v>
       </c>
-      <c r="J179" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K179" s="5">
+      <c r="M179" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N179" s="5">
         <v>1620096.0</v>
       </c>
     </row>
@@ -15209,18 +16557,25 @@
         <v>500.0</v>
       </c>
       <c r="E180" s="5">
+        <v>596720.0</v>
+      </c>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H180" s="5">
         <v>732459.0</v>
       </c>
-      <c r="G180" s="5">
+      <c r="J180" s="5">
         <v>369.0</v>
       </c>
-      <c r="H180" s="5">
+      <c r="K180" s="5">
         <v>863795.0</v>
       </c>
-      <c r="J180" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="K180" s="5">
+      <c r="M180" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="N180" s="5">
         <v>1618326.0</v>
       </c>
     </row>
@@ -15235,18 +16590,25 @@
         <v>500.0</v>
       </c>
       <c r="E181" s="5">
+        <v>594026.0</v>
+      </c>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H181" s="5">
         <v>731322.0</v>
       </c>
-      <c r="G181" s="5">
+      <c r="J181" s="5">
         <v>29.0</v>
       </c>
-      <c r="H181" s="5">
+      <c r="K181" s="5">
         <v>67866.0</v>
       </c>
-      <c r="J181" s="5">
+      <c r="M181" s="5">
         <v>219.0</v>
       </c>
-      <c r="K181" s="5">
+      <c r="N181" s="5">
         <v>707913.0</v>
       </c>
     </row>
@@ -15261,18 +16623,25 @@
         <v>500.0</v>
       </c>
       <c r="E182" s="5">
+        <v>590842.0</v>
+      </c>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="H182" s="5">
         <v>726012.0</v>
       </c>
-      <c r="G182" s="5">
+      <c r="J182" s="5">
         <v>28.0</v>
       </c>
-      <c r="H182" s="5">
+      <c r="K182" s="5">
         <v>65482.0</v>
       </c>
-      <c r="J182" s="5">
+      <c r="M182" s="5">
         <v>5.0</v>
       </c>
-      <c r="K182" s="5">
+      <c r="N182" s="5">
         <v>14882.0</v>
       </c>
     </row>
@@ -15284,21 +16653,28 @@
         <v>9342.0</v>
       </c>
       <c r="D183" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E183" s="5">
+        <v>587656.0</v>
+      </c>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5">
         <v>79.0</v>
       </c>
-      <c r="E183" s="5">
+      <c r="H183" s="5">
         <v>113542.0</v>
       </c>
-      <c r="G183" s="5">
+      <c r="J183" s="5">
         <v>23.0</v>
       </c>
-      <c r="H183" s="5">
+      <c r="K183" s="5">
         <v>53863.0</v>
       </c>
-      <c r="J183" s="5">
+      <c r="M183" s="5">
         <v>75.0</v>
       </c>
-      <c r="K183" s="5">
+      <c r="N183" s="5">
         <v>242635.0</v>
       </c>
     </row>
@@ -15310,21 +16686,28 @@
         <v>9340.0</v>
       </c>
       <c r="D184" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E184" s="5">
+        <v>584185.0</v>
+      </c>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5">
         <v>5.0</v>
       </c>
-      <c r="E184" s="5">
+      <c r="H184" s="5">
         <v>6073.0</v>
       </c>
-      <c r="G184" s="5">
+      <c r="J184" s="5">
         <v>15.0</v>
       </c>
-      <c r="H184" s="5">
+      <c r="K184" s="5">
         <v>34957.0</v>
       </c>
-      <c r="J184" s="5">
+      <c r="M184" s="5">
         <v>91.0</v>
       </c>
-      <c r="K184" s="5">
+      <c r="N184" s="5">
         <v>294573.0</v>
       </c>
     </row>
@@ -15336,21 +16719,28 @@
         <v>9340.0</v>
       </c>
       <c r="D185" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E185" s="5">
+        <v>583095.0</v>
+      </c>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5">
         <v>5.0</v>
       </c>
-      <c r="E185" s="5">
+      <c r="H185" s="5">
         <v>6092.0</v>
       </c>
-      <c r="G185" s="5">
+      <c r="J185" s="5">
         <v>9.0</v>
       </c>
-      <c r="H185" s="5">
+      <c r="K185" s="5">
         <v>20906.0</v>
       </c>
-      <c r="J185" s="5">
+      <c r="M185" s="5">
         <v>45.0</v>
       </c>
-      <c r="K185" s="5">
+      <c r="N185" s="5">
         <v>144685.0</v>
       </c>
     </row>
@@ -15362,21 +16752,28 @@
         <v>9340.0</v>
       </c>
       <c r="D186" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E186" s="5">
+        <v>580878.0</v>
+      </c>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5">
         <v>5.0</v>
       </c>
-      <c r="E186" s="5">
+      <c r="H186" s="5">
         <v>6095.0</v>
       </c>
-      <c r="G186" s="5">
+      <c r="J186" s="5">
         <v>7.0</v>
       </c>
-      <c r="H186" s="5">
+      <c r="K186" s="5">
         <v>16245.0</v>
       </c>
-      <c r="J186" s="5">
+      <c r="M186" s="5">
         <v>28.0</v>
       </c>
-      <c r="K186" s="5">
+      <c r="N186" s="5">
         <v>89527.0</v>
       </c>
     </row>
@@ -15388,21 +16785,28 @@
         <v>9342.0</v>
       </c>
       <c r="D187" s="5">
+        <v>195.0</v>
+      </c>
+      <c r="E187" s="5">
+        <v>225311.0</v>
+      </c>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5">
         <v>56.0</v>
       </c>
-      <c r="E187" s="5">
+      <c r="H187" s="5">
         <v>81103.0</v>
       </c>
-      <c r="G187" s="5">
+      <c r="J187" s="5">
         <v>8.0</v>
       </c>
-      <c r="H187" s="5">
+      <c r="K187" s="5">
         <v>18538.0</v>
       </c>
-      <c r="J187" s="5">
+      <c r="M187" s="5">
         <v>52.0</v>
       </c>
-      <c r="K187" s="5">
+      <c r="N187" s="5">
         <v>168667.0</v>
       </c>
     </row>
@@ -15414,21 +16818,28 @@
         <v>9340.0</v>
       </c>
       <c r="D188" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E188" s="5">
+        <v>5615.0</v>
+      </c>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5">
         <v>63.0</v>
       </c>
-      <c r="E188" s="5">
+      <c r="H188" s="5">
         <v>91229.0</v>
       </c>
-      <c r="G188" s="5">
+      <c r="J188" s="5">
         <v>87.0</v>
       </c>
-      <c r="H188" s="5">
+      <c r="K188" s="5">
         <v>204604.0</v>
       </c>
-      <c r="J188" s="5">
+      <c r="M188" s="5">
         <v>45.0</v>
       </c>
-      <c r="K188" s="5">
+      <c r="N188" s="5">
         <v>145723.0</v>
       </c>
     </row>
@@ -15440,21 +16851,28 @@
         <v>9340.0</v>
       </c>
       <c r="D189" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E189" s="5">
+        <v>5615.0</v>
+      </c>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5">
         <v>65.0</v>
       </c>
-      <c r="E189" s="5">
+      <c r="H189" s="5">
         <v>94269.0</v>
       </c>
-      <c r="G189" s="5">
+      <c r="J189" s="5">
         <v>89.0</v>
       </c>
-      <c r="H189" s="5">
+      <c r="K189" s="5">
         <v>209508.0</v>
       </c>
-      <c r="J189" s="5">
+      <c r="M189" s="5">
         <v>56.0</v>
       </c>
-      <c r="K189" s="5">
+      <c r="N189" s="5">
         <v>181521.0</v>
       </c>
     </row>
@@ -15466,21 +16884,28 @@
         <v>9340.0</v>
       </c>
       <c r="D190" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E190" s="5">
+        <v>4836.0</v>
+      </c>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5">
         <v>53.0</v>
       </c>
-      <c r="E190" s="5">
+      <c r="H190" s="5">
         <v>76848.0</v>
       </c>
-      <c r="G190" s="5">
+      <c r="J190" s="5">
         <v>100.0</v>
       </c>
-      <c r="H190" s="5">
+      <c r="K190" s="5">
         <v>235365.0</v>
       </c>
-      <c r="J190" s="5">
+      <c r="M190" s="5">
         <v>54.0</v>
       </c>
-      <c r="K190" s="5">
+      <c r="N190" s="5">
         <v>174847.0</v>
       </c>
     </row>
@@ -15492,21 +16917,28 @@
         <v>9340.0</v>
       </c>
       <c r="D191" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E191" s="5">
+        <v>4855.0</v>
+      </c>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5">
         <v>42.0</v>
       </c>
-      <c r="E191" s="5">
+      <c r="H191" s="5">
         <v>60918.0</v>
       </c>
-      <c r="G191" s="5">
+      <c r="J191" s="5">
         <v>82.0</v>
       </c>
-      <c r="H191" s="5">
+      <c r="K191" s="5">
         <v>193233.0</v>
       </c>
-      <c r="J191" s="5">
+      <c r="M191" s="5">
         <v>54.0</v>
       </c>
-      <c r="K191" s="5">
+      <c r="N191" s="5">
         <v>174884.0</v>
       </c>
     </row>
@@ -15518,21 +16950,28 @@
         <v>9340.0</v>
       </c>
       <c r="D192" s="5">
+        <v>47.0</v>
+      </c>
+      <c r="E192" s="5">
+        <v>54457.0</v>
+      </c>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5">
         <v>34.0</v>
       </c>
-      <c r="E192" s="5">
+      <c r="H192" s="5">
         <v>49454.0</v>
       </c>
-      <c r="G192" s="5">
+      <c r="J192" s="5">
         <v>30.0</v>
       </c>
-      <c r="H192" s="5">
+      <c r="K192" s="5">
         <v>70516.0</v>
       </c>
-      <c r="J192" s="5">
+      <c r="M192" s="5">
         <v>51.0</v>
       </c>
-      <c r="K192" s="5">
+      <c r="N192" s="5">
         <v>165074.0</v>
       </c>
     </row>
@@ -15541,16 +16980,22 @@
       <c r="B193" s="5"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
-      <c r="J193" s="8"/>
-      <c r="K193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="M193" s="8"/>
+      <c r="N193" s="8"/>
     </row>
     <row r="194">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="M194" s="8"/>
+      <c r="N194" s="8"/>
     </row>
     <row r="195">
       <c r="A195" s="5"/>
@@ -15577,14 +17022,19 @@
       <c r="B200" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
